--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_153.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_153.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_153.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_153.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Motel 6 New Orleans Near Downtown</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>106</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4350</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70126</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70126</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_153.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_153.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="697">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1999 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r621802208-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>223123</t>
+  </si>
+  <si>
+    <t>621802208</t>
+  </si>
+  <si>
+    <t>10/03/2018</t>
+  </si>
+  <si>
+    <t>Owner of Business</t>
+  </si>
+  <si>
+    <t>The most uncomfortable bed ever!  Hard as a rock and very thin mattress on top of wood platform. Toilets don’t flush very well.  Homeless people curl up under the windows to sleep at night.  The rooms were wood floors and they were nice. It was clean but did have a funky smell.  We just booked for cheaper price. You get what you pay for. We didn’t spend much time in the room because of a convention we attended. Just wish the beds were more comfy.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans - near downtown, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>The most uncomfortable bed ever!  Hard as a rock and very thin mattress on top of wood platform. Toilets don’t flush very well.  Homeless people curl up under the windows to sleep at night.  The rooms were wood floors and they were nice. It was clean but did have a funky smell.  We just booked for cheaper price. You get what you pay for. We didn’t spend much time in the room because of a convention we attended. Just wish the beds were more comfy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r608974162-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>608974162</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Horrid.</t>
+  </si>
+  <si>
+    <t>I booked a room for myself, my boyfriend and his dog.  I wrote "traveling with pet" on the online reservation.  When we arrived, I was told that it would be an additional $20 pet deposit and that "I would get it back when we checked out."  Even though the clerk would not give me a receipt.  I fully expected not to get my $20 back.  When we arrived at our room, we found the bathroom door off it's hinges and the bathtub drain plug missing.  We called the front desk to ask about these two things and were told, "We will check into it."  An hour later, we called back and inquired again, and were told that they tried to take the drain plug from another room, but that didn't work and they did not have another drain plug to give us."  No solution for the bathroom door either.  The next morning, we were without hot water for a shower.  Called the front desk again and were told again, "We will check into it."  Went into town and came back to have hot water, but still no new bathroom door or drain plug for the bathtub.  The ONLY good thing I will say about this hotel is that I did get my $20 pet deposit back when we checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans - near downtown, responded to this reviewResponded August 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2018</t>
+  </si>
+  <si>
+    <t>I booked a room for myself, my boyfriend and his dog.  I wrote "traveling with pet" on the online reservation.  When we arrived, I was told that it would be an additional $20 pet deposit and that "I would get it back when we checked out."  Even though the clerk would not give me a receipt.  I fully expected not to get my $20 back.  When we arrived at our room, we found the bathroom door off it's hinges and the bathtub drain plug missing.  We called the front desk to ask about these two things and were told, "We will check into it."  An hour later, we called back and inquired again, and were told that they tried to take the drain plug from another room, but that didn't work and they did not have another drain plug to give us."  No solution for the bathroom door either.  The next morning, we were without hot water for a shower.  Called the front desk again and were told again, "We will check into it."  Went into town and came back to have hot water, but still no new bathroom door or drain plug for the bathtub.  The ONLY good thing I will say about this hotel is that I did get my $20 pet deposit back when we checked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r596461109-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>596461109</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>The pool</t>
+  </si>
+  <si>
+    <t>The pool was nasty..not clean..a lot of dangerous bactéria for sure..nobody came To put some treatment between the wenesday till sunday...the water was very dirty. ..a lot of people was swiming in it..but they just dont know pool...i have one...so i know how or suppose To beMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans - near downtown, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>The pool was nasty..not clean..a lot of dangerous bactéria for sure..nobody came To put some treatment between the wenesday till sunday...the water was very dirty. ..a lot of people was swiming in it..but they just dont know pool...i have one...so i know how or suppose To beMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r594976697-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>594976697</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>A Gem by the Underpass</t>
+  </si>
+  <si>
+    <t>Driving up to the motel area I felt uneasy about the area. The front desk area was bleak and had a weird smell.  My room was big and orange and we stayed there for 3 nights.  After a couple days I felt at ease, its semi close to the French Quarter.   When taking a cab it cost about $16 one way which isn't to bad. The interior was clean I did not see one bug throughout the whole place.  Everything worked in my room, the AC was cool which is very important in the summer here.  The staff was nice they gave me extra towels and cups when needed.  There was no drama, it was quiet and we got a good night sleep.  The Subway next door is convenient and the ladies in there are also helpful and nice.  The neighborhood has some restaurants and stores that are within walking distance and I felt safe.  Its not so bad.  Above all I was pleasantly surprised with this hotel.  Very good customer service and if your on a budget this hotel would be great!MoreShow less</t>
+  </si>
+  <si>
+    <t>Driving up to the motel area I felt uneasy about the area. The front desk area was bleak and had a weird smell.  My room was big and orange and we stayed there for 3 nights.  After a couple days I felt at ease, its semi close to the French Quarter.   When taking a cab it cost about $16 one way which isn't to bad. The interior was clean I did not see one bug throughout the whole place.  Everything worked in my room, the AC was cool which is very important in the summer here.  The staff was nice they gave me extra towels and cups when needed.  There was no drama, it was quiet and we got a good night sleep.  The Subway next door is convenient and the ladies in there are also helpful and nice.  The neighborhood has some restaurants and stores that are within walking distance and I felt safe.  Its not so bad.  Above all I was pleasantly surprised with this hotel.  Very good customer service and if your on a budget this hotel would be great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r594179119-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>594179119</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Dirty restroom, poor service.</t>
+  </si>
+  <si>
+    <t>Dirty restroom, poor service.  had cigarette burn in the beed sheet. location is also not good. no room service provided in terms of restroom cleaning etc. Linens are old and dirty. Amenities are broken.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 New Orleans - near downtown, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Dirty restroom, poor service.  had cigarette burn in the beed sheet. location is also not good. no room service provided in terms of restroom cleaning etc. Linens are old and dirty. Amenities are broken.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r582171433-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>582171433</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>The Bed was worth it</t>
+  </si>
+  <si>
+    <t>First, let just say it, the vibe outside is not the best, but the bed was well worth it!  It was one of the more comfortable beds we stayed in the entire trip.  That being said, carpeting was in the process of being re-done, the front desk staff were not the friendliest, and parking was behind a gate (that did not close while we were there).  The room was clean, shower was nice and hot (with good pressure), and having a Subway next door was convenient (staff there was outstanding!).</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r571746519-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>571746519</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>TERRIBLE!!!!!!!</t>
+  </si>
+  <si>
+    <t>This is the worst place we have ever stayed.  This Motel 6 should always keep the lights on. The ROACHES for one!!! Sends chills down my spine just thinking about our night there. By the way the only motel I know that does not even have shampoo in your room. So,I guess that's why there's not a hair dryer. There is not a coffee maker either. As a matter of fact there is hardly anything in the room its big and bare. its not carpeted either. People live here. All night long all you hear is slamming doors and people CONSTANTLY walking around. This is a very shady area. The Days INN next door has alot of shadiness going on as well. We had booked 3 days online. I went to the front desk and noted we wanted to check out the next day. Said it was no problem. The next morning the owner pretended he did not see or hear me as I was trying to say something to him.Anyhow they refused our refund. However since my spouse booked through booking.com. They took care of us. They gave us an online voucher for the remaining 2 days!!! KUDOS to BOOKING.COM for saving or day!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 New Orleans - near downtown, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>This is the worst place we have ever stayed.  This Motel 6 should always keep the lights on. The ROACHES for one!!! Sends chills down my spine just thinking about our night there. By the way the only motel I know that does not even have shampoo in your room. So,I guess that's why there's not a hair dryer. There is not a coffee maker either. As a matter of fact there is hardly anything in the room its big and bare. its not carpeted either. People live here. All night long all you hear is slamming doors and people CONSTANTLY walking around. This is a very shady area. The Days INN next door has alot of shadiness going on as well. We had booked 3 days online. I went to the front desk and noted we wanted to check out the next day. Said it was no problem. The next morning the owner pretended he did not see or hear me as I was trying to say something to him.Anyhow they refused our refund. However since my spouse booked through booking.com. They took care of us. They gave us an online voucher for the remaining 2 days!!! KUDOS to BOOKING.COM for saving or day!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r566114778-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>566114778</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>DO - NOT - STAY  - HERE!!!</t>
+  </si>
+  <si>
+    <t>This is a complete nightmare to stay here!!!  There were stains on the sheets.  The carpet walking up to the rooms was just nasty!  The rooms smelled like mold, smoke and dirty people!  There was RAVE music playing next door at 3:00 in the morning.  I had to call down stairs to tell them to handle it!  Then there were men yelling outside our room half the night.  We could not get out of there fast enough!!They charged my room before I even checked in.  If New Orleans was not completely booked and this was our only option....I would have LEFT!!  Sleeping in my car with my 2 daughters would have been safer then staying in this place!!  There was trash EVERYWHERE!!  I just can't even explain how nasty this place was!  I paid $91 to stay in this dump!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 New Orleans - near downtown, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>This is a complete nightmare to stay here!!!  There were stains on the sheets.  The carpet walking up to the rooms was just nasty!  The rooms smelled like mold, smoke and dirty people!  There was RAVE music playing next door at 3:00 in the morning.  I had to call down stairs to tell them to handle it!  Then there were men yelling outside our room half the night.  We could not get out of there fast enough!!They charged my room before I even checked in.  If New Orleans was not completely booked and this was our only option....I would have LEFT!!  Sleeping in my car with my 2 daughters would have been safer then staying in this place!!  There was trash EVERYWHERE!!  I just can't even explain how nasty this place was!  I paid $91 to stay in this dump!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r564464799-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564464799</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's worth the extra money to be safe </t>
+  </si>
+  <si>
+    <t>I did not read the previous reviews where a woman was held at gunpoint I just thought it would be a good place to stay at a decent rate. Long story short when our Uber driver was dropping us off he said " I don't think you girls should stay here." When we got out of the Uber people were yelling and I instantly got an uncomfortable vibe. Needless to say we booked a hotel closer for more money but you can't put a price on safety!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 New Orleans - near downtown, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>I did not read the previous reviews where a woman was held at gunpoint I just thought it would be a good place to stay at a decent rate. Long story short when our Uber driver was dropping us off he said " I don't think you girls should stay here." When we got out of the Uber people were yelling and I instantly got an uncomfortable vibe. Needless to say we booked a hotel closer for more money but you can't put a price on safety!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r540287560-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>540287560</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Close to downtown. Cheap but good.</t>
+  </si>
+  <si>
+    <t>Motel 6.  The basics are covered.  Clean. Secure.   Took a bus back from downtown in 15 min.  If you want cheap and close to downtown this is it.  Parking lot has security.Basic breakfast included,   Subway next door McDonald’s and Walmart a short walk.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r540087674-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>540087674</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>clean room, convenient location</t>
+  </si>
+  <si>
+    <t>I stayed here while in town for a conference.  It wasn't too bad getting back and forth from the convention center on the bus/trolley.  The front desk staff was nice and gave me an extra blanket.  Although things were a bit scuffed up, everything was perfectly clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r528622852-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>528622852</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Just NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They guy at the front desk as not helpful. I asked for an extra blanket and he claimed they ran out after walking away for 2 seconds. He couldn't change my room to a double bed and there was no explanation. I probably will not stay here again. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r527326341-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>527326341</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Clean room, reasonable price</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here when we left Florida during Hurricane Irma. The neighborhood might not be the French Quarter, or the nicest of places, the motel was just fine. The room was clean, though very spartan. There was a bed and a table. The television was on the wall. No dressers. However, it served the purpose nicely.The staff was very nice, as well. We had our dog with us and there is a large yard behind the building where she could go out and stretch and do her thing! I'd stay here again.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r505987325-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>505987325</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>We got about what was expected for the price. The staff were wonderful...the facility was not.</t>
+  </si>
+  <si>
+    <t>We needed something at the last minute, so we went with something cheaper. The front desk staff was friendly, but the motel itself seemed worse for wear. The deadbolt in our first room didn't work, so we asked for a second room. That room had a musty smell, and the air didn't seem to be blowing very cold. We were so tired that we dealt with it. It was fine for what we needed it for. The beds were comfortable and the shower worked, so hey! What else do you need for that price? Just don't go in expecting much. The place could use some work, but again, it worked in a pinch.MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed something at the last minute, so we went with something cheaper. The front desk staff was friendly, but the motel itself seemed worse for wear. The deadbolt in our first room didn't work, so we asked for a second room. That room had a musty smell, and the air didn't seem to be blowing very cold. We were so tired that we dealt with it. It was fine for what we needed it for. The beds were comfortable and the shower worked, so hey! What else do you need for that price? Just don't go in expecting much. The place could use some work, but again, it worked in a pinch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r494120807-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>494120807</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Superior Motel 6</t>
+  </si>
+  <si>
+    <t>This is about as good as Motel6 gets: close to down town, micro/frig in room, free wifi, fast food, Walmart, convenience store, everything right across the street, under $70/n. A truly perfect Motel 6.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r492315265-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>492315265</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>It was very nice. However......</t>
+  </si>
+  <si>
+    <t>Arrived last Friday for the weekend. Check in was quick and easy. Our room was very nice. We never had to drive more than 7miles to downtown. The room was nice and clean and it definitely served our purpose. And now the rest of the story. My companion seen a very,very tiny roach in the bathroom. Saturday night I observed a larger one in the bathroom sink area as well. This was not a game changer for us. Saturday morning as we were heading out a tiny screw fell out of her sunglasses. I got on the floor to lQQk for it. Discovered underneath the beds were quite dirty and appeared to not have been cleaned for a while. This also was not a game changer for us. Checked out Sunday morning. Spoke with another couple who were there with two children. I asked if they experienced something similar. They said no and that their stay was enjoyable. I completed the guest survey card and expressed my two concerns. The checkout guy said it would be taken care of. I also informed them I would submit a review to TripAdvisor. Would we stay there again? HELL YEAH yeah! I took the checkout guy at his word and that the issues would be addressed. I would recommend this Motel6 to anyone. My companion agreed. Note: Front desk staff should smile more. It dosen't hurt.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived last Friday for the weekend. Check in was quick and easy. Our room was very nice. We never had to drive more than 7miles to downtown. The room was nice and clean and it definitely served our purpose. And now the rest of the story. My companion seen a very,very tiny roach in the bathroom. Saturday night I observed a larger one in the bathroom sink area as well. This was not a game changer for us. Saturday morning as we were heading out a tiny screw fell out of her sunglasses. I got on the floor to lQQk for it. Discovered underneath the beds were quite dirty and appeared to not have been cleaned for a while. This also was not a game changer for us. Checked out Sunday morning. Spoke with another couple who were there with two children. I asked if they experienced something similar. They said no and that their stay was enjoyable. I completed the guest survey card and expressed my two concerns. The checkout guy said it would be taken care of. I also informed them I would submit a review to TripAdvisor. Would we stay there again? HELL YEAH yeah! I took the checkout guy at his word and that the issues would be addressed. I would recommend this Motel6 to anyone. My companion agreed. Note: Front desk staff should smile more. It dosen't hurt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r478203707-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>478203707</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Great!! Cheap and cheerful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We read mixed reviews about this place and when we arrived we were pretty unsure but looks can be deceiving! The room is a big size, clean and the bed is very comfortable. Staff were nice, had no problems so only met them on check in. Ride to the city by uber is about $8 around 7pm and about $12 around 1am but this varies. We are currently on our honeymoon and we would have rather spent our money on enjoying New Orleans then a hotel room. Cost us £97 for two nights!! Which is an amazing price for this city! Cheap and clean! </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r474199228-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>474199228</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest of low </t>
+  </si>
+  <si>
+    <t>Horrible this hotel us bottom of the barrel the beds are hard like jail cots took 15min just for the water to warm up staff was rude and I think the family that owns 5he hotel lives there. My car was more comfortable than this hotel!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans - near downtown, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Horrible this hotel us bottom of the barrel the beds are hard like jail cots took 15min just for the water to warm up staff was rude and I think the family that owns 5he hotel lives there. My car was more comfortable than this hotel!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r472536216-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>472536216</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>KICKED OUT OF OUR ROOM IN THE MORNING</t>
+  </si>
+  <si>
+    <t>Management calls us Sunday morning to kick us out of our room because they have to work on their carpet. We checked in on Friday morning and they did not inform us about this at all. We tried to reason with them with that and they said they are informing us then and there. Unprofessional, disrespectful, and rude. On top of it, this place is no where near the French Quarter, Frenchmen Street, City Park, and pretty much everywhere you want to be. Don't save that $20 to stay here, pay the extra money for better location and better service. NEVER AGAIN.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management calls us Sunday morning to kick us out of our room because they have to work on their carpet. We checked in on Friday morning and they did not inform us about this at all. We tried to reason with them with that and they said they are informing us then and there. Unprofessional, disrespectful, and rude. On top of it, this place is no where near the French Quarter, Frenchmen Street, City Park, and pretty much everywhere you want to be. Don't save that $20 to stay here, pay the extra money for better location and better service. NEVER AGAIN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r467615965-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467615965</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Cheap and good location, but uncomfortable</t>
+  </si>
+  <si>
+    <t>Location is great and the hotel is cheap, however you will quickly notice why. The room was clean, but it smelled like weed and curry in the room and especially in the hallway. Bathroom was relatively clean but definitely needs an upgrade. Smoke detector was covered with a plastic bag. Some strange people were walking in the hallway and the parking lot. Service was okay, nothing to say about that. All in all, if you just want to stay in NOLA and don't care for comfort, it's a good and cheap option, but if you feel unsafe easily and want some more comfort, go somewhere else!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r462102097-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>462102097</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Please don't go here....its cheap"er" for a reason!!!</t>
+  </si>
+  <si>
+    <t>Room smelled horrible. The shower did not work. The comforter is so thin it resembles a shower curtain. Saw two german cockroaches on the door frame of my room. Worst experience I have had in my life. The mattress is so uncomfortable it hurt my back.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r460220695-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>460220695</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Never going here again</t>
+  </si>
+  <si>
+    <t>Horrible...we got there they couldnt find our booking.. after i gave him our booking number, my name and showed him the confirmation number. Then he tried to book a room and charge me an addition $10 for what i dont know.. after so long he finally found our booking info.. we hot to them room the beds were so thin and roaches were in the room crawling... ewww! Worst hotel experience ever!!! Then the whole first night there there were a couple across from us fussing and fighting in the hallway for hours..the hallway smell of smoke but were all non smoke rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r459186306-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>459186306</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mardi Gras weekend </t>
+  </si>
+  <si>
+    <t>Holes in the wall as if someone is watching us. Couldn't leave our personal items in the room.  Unsafe!  Not a good breakfast items . Convenient to the highway getting on and off.  Convenient to the French quarters MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 New Orleans - near downtown, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Holes in the wall as if someone is watching us. Couldn't leave our personal items in the room.  Unsafe!  Not a good breakfast items . Convenient to the highway getting on and off.  Convenient to the French quarters More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r435812459-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>435812459</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Don't let the outside deter you</t>
+  </si>
+  <si>
+    <t>The very look of its surroundings and the caged lot screams "run away," but inside are the largest standard motel rooms I have encountered and done up in a very modern decor. This comes at some price though as the raised platform beds, while chic, were Hades on the back after a day or two. Give me a good box spring next time. Fridge and mircowave were put to good use. Everything else is pretty much standard Motel 6. Internet was very fast in our location.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 New Orleans - near downtown, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>The very look of its surroundings and the caged lot screams "run away," but inside are the largest standard motel rooms I have encountered and done up in a very modern decor. This comes at some price though as the raised platform beds, while chic, were Hades on the back after a day or two. Give me a good box spring next time. Fridge and mircowave were put to good use. Everything else is pretty much standard Motel 6. Internet was very fast in our location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r428807802-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>428807802</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surprise budget trip  </t>
+  </si>
+  <si>
+    <t>Location was 10/20 minutes to everything. Spacious rooms. Clean well cleaner than I had imagined. I loved the "courtyard" my room was viewing a palm tree along with a freeway in the back ground. I had a room by the exit on the first floor because I said I smoke and the front desk man here let's get you a 1st floor room which I thought was pretty cool. Uber were only 10$ to Bourbon Street. I had come to New Orleans to pick my sister who ported in from a cruise and to my surprise it was only 10mins from hotel. We did have problem with the toilet but once front desk was informed it was handled.Awful bedding,not the greatest pillows and It's New Orleans everything smells like mildew. Everything has water damage. Loud a/c but was just happy that it worked. Could use some updates but you get what you pay for...MoreShow less</t>
+  </si>
+  <si>
+    <t>Location was 10/20 minutes to everything. Spacious rooms. Clean well cleaner than I had imagined. I loved the "courtyard" my room was viewing a palm tree along with a freeway in the back ground. I had a room by the exit on the first floor because I said I smoke and the front desk man here let's get you a 1st floor room which I thought was pretty cool. Uber were only 10$ to Bourbon Street. I had come to New Orleans to pick my sister who ported in from a cruise and to my surprise it was only 10mins from hotel. We did have problem with the toilet but once front desk was informed it was handled.Awful bedding,not the greatest pillows and It's New Orleans everything smells like mildew. Everything has water damage. Loud a/c but was just happy that it worked. Could use some updates but you get what you pay for...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r422289755-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>422289755</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean room. Nice housekeepers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed 3 nights. Would come again if ever in the area. Very Affordable. No carpet but I actually like it that way. Housekeepers were very helpful and always greeted me with smiles. They even gave hugs on my last morning. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r421336742-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>421336742</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Pleasently surprised</t>
+  </si>
+  <si>
+    <t>I thought this place would be a bit rough because of the neighbourhood we looked to be in but found it quite adequate for a few nights stay.  The laundry was fine.  The room was spacious and clean and tidy.  There looked to be homeless people living under the freeway just a couple of blocks from the Motel but we didn't have any trouble.  We ate at local places with no issues but we didn't go out walking at night.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r387477717-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>387477717</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>No Hot Water, Hard Bed.....</t>
+  </si>
+  <si>
+    <t>I was Ok with this Place until i woke up and tried to take a Shower.... No hot water. And the Bed was Hard . No Box Spring under the Mattress.. Security is good there. You can't  even enter the Building unless you have a Room Card Key which is good.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r379015977-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>379015977</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Dangerous</t>
+  </si>
+  <si>
+    <t>This motel looked fine the rooms were large and reasonably clean (though we did kill cockroaches in both rooms we were in) The problem is they lock the doors in the corridors between the rooms and the reception.....and that is where the danger lies....we were held up at gun point here and there was no other way to get to the reception for help but to go outside and as we were trapped inside the corridor we couldn't get to the outside door.....luckily the keys to our door failed or we would have been locked in our room with him....we did manage to get our Granddaughter away while the gunman was trying to get into our room and she got outside ran to reception for help only to find the door locked and a night window being used....even when she told them what was happening they didn't call for help they tried to give her another key....the guy did a runner when he realised our Granddaughter was gone....we went after her to make sure she was okay and she had only just got inside the hotel and they still didn't call the police we had to do it....they have cameras in the hotel but the nightstaff obviously don't monitor them or they would have seen what was going on especially when the guy started kicking the door.....the manager tried to blame us for the guy getting into the hotel but...This motel looked fine the rooms were large and reasonably clean (though we did kill cockroaches in both rooms we were in) The problem is they lock the doors in the corridors between the rooms and the reception.....and that is where the danger lies....we were held up at gun point here and there was no other way to get to the reception for help but to go outside and as we were trapped inside the corridor we couldn't get to the outside door.....luckily the keys to our door failed or we would have been locked in our room with him....we did manage to get our Granddaughter away while the gunman was trying to get into our room and she got outside ran to reception for help only to find the door locked and a night window being used....even when she told them what was happening they didn't call for help they tried to give her another key....the guy did a runner when he realised our Granddaughter was gone....we went after her to make sure she was okay and she had only just got inside the hotel and they still didn't call the police we had to do it....they have cameras in the hotel but the nightstaff obviously don't monitor them or they would have seen what was going on especially when the guy started kicking the door.....the manager tried to blame us for the guy getting into the hotel but he pushed his way in when my husband went to take my wheelchair in and we assumed he was a guest.... he also said he had never had any problems like this before but when he told the police officer he had cameras the police officer said he was a good guy to work with as he always had what they needed.....so he obviously had had problems before....after it was all over we didn't feel safe as the gunman knew which room we were in and may have come back knowing we had accessed the room....so we requested to be moved which they did but moved us 4 doors down the same corridor....later that night someone was knocking on doors but we just ignored it.....please please becareful if you book this hotel...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This motel looked fine the rooms were large and reasonably clean (though we did kill cockroaches in both rooms we were in) The problem is they lock the doors in the corridors between the rooms and the reception.....and that is where the danger lies....we were held up at gun point here and there was no other way to get to the reception for help but to go outside and as we were trapped inside the corridor we couldn't get to the outside door.....luckily the keys to our door failed or we would have been locked in our room with him....we did manage to get our Granddaughter away while the gunman was trying to get into our room and she got outside ran to reception for help only to find the door locked and a night window being used....even when she told them what was happening they didn't call for help they tried to give her another key....the guy did a runner when he realised our Granddaughter was gone....we went after her to make sure she was okay and she had only just got inside the hotel and they still didn't call the police we had to do it....they have cameras in the hotel but the nightstaff obviously don't monitor them or they would have seen what was going on especially when the guy started kicking the door.....the manager tried to blame us for the guy getting into the hotel but...This motel looked fine the rooms were large and reasonably clean (though we did kill cockroaches in both rooms we were in) The problem is they lock the doors in the corridors between the rooms and the reception.....and that is where the danger lies....we were held up at gun point here and there was no other way to get to the reception for help but to go outside and as we were trapped inside the corridor we couldn't get to the outside door.....luckily the keys to our door failed or we would have been locked in our room with him....we did manage to get our Granddaughter away while the gunman was trying to get into our room and she got outside ran to reception for help only to find the door locked and a night window being used....even when she told them what was happening they didn't call for help they tried to give her another key....the guy did a runner when he realised our Granddaughter was gone....we went after her to make sure she was okay and she had only just got inside the hotel and they still didn't call the police we had to do it....they have cameras in the hotel but the nightstaff obviously don't monitor them or they would have seen what was going on especially when the guy started kicking the door.....the manager tried to blame us for the guy getting into the hotel but he pushed his way in when my husband went to take my wheelchair in and we assumed he was a guest.... he also said he had never had any problems like this before but when he told the police officer he had cameras the police officer said he was a good guy to work with as he always had what they needed.....so he obviously had had problems before....after it was all over we didn't feel safe as the gunman knew which room we were in and may have come back knowing we had accessed the room....so we requested to be moved which they did but moved us 4 doors down the same corridor....later that night someone was knocking on doors but we just ignored it.....please please becareful if you book this hotel...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r368064979-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>368064979</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Just Fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the area around here seems sketchy. But NOLA has a lot of sketchy areas. It wouldn't keep me from visiting, I just know to be extra careful. Hotels were extra expensive during our visit to NOLA, which is why we settled here. We just needed a place to sleep and shower. This motel worked out for our needs. Our room seemed to have been recently renovated. The bed wasn't the most comfortable, but it was only for one night. I'd go back. </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r365633679-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>365633679</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>The hotel was okay. It was walking distance to Walmart and other fast food locations. The bathroom door looked like it's been through the shredder. The bed was hard. The room looked clean but very empty. For the price I cannot complain.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r364900000-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>364900000</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>A nice motel but in scary area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice motel- new rooms it looked like, had the necessary amenities needed. Perfect location from downtown- a $9-15 uber ride to Frenchman/ Bourbon streets. What got us was the area- both uber drivers on different nights had warned us about that area and not to leave the hotel. If you tripadvisor any hotels/motels on that road the reviews will tell you not safe area.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r362090370-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>362090370</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Disgusting room-smell</t>
+  </si>
+  <si>
+    <t>Positive: Quite near to downtown; good variety of tv channels - we could watch German Bundesliga (soccer) live; low rates.Negative: you can't open the window, so the ugly smell stays in the room - big and small cockroaches liked it there. Bedsheet was dirty (but they gave me a clean one on request); stains on walls and ceiling.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r357656279-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>357656279</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Ghetto</t>
+  </si>
+  <si>
+    <t>This place is pretty sleazy. The room was very musty and dirty. The bed had no blanket, just sheets with a few cigarette burns in them. Two wasted guys got into a yelling match in the middle of the night outside our door.  The bathroom was fairly disgusting with not quite hot enough water. Cheap is cheap I guess, but just know this place is pretty damn scuzzy.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r346765669-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>346765669</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Clean but old. Convenient location.</t>
+  </si>
+  <si>
+    <t>Very friendly staff. The motel is old but clean. I felt safe and secure in this motel. I was traveling with my children and I had no concerns whatsoever. A short drive (less than 10 min) to the French Qtr. Parking was easy with our moving truck. Close to fast food and stores. I would recommend this to anyone who is looking for a cheap, clean, safe place to stay.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r346517444-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>346517444</t>
+  </si>
+  <si>
+    <t>Good value , especially on Mardi  Gras</t>
+  </si>
+  <si>
+    <t>Booked at last minute and all hotels in French quarter were extremely expensive on Mardi Gras so was relieved to find this motel 6 which was reasonable value and only a ten to fifteen minute bus ride from downtown/ French quarter( bus stop short walk away). Usual type of motel 6 , clean and functional, no frills and towels very small . The rooms however were very large, and the bed comfortable. Also the reception staff very helpful and friendly. Recommend for a couple of nights, although if come again to this lovely town I will book well,in advance, avoid the expense of Mardi Gras and stay in French quarter !MoreShow less</t>
+  </si>
+  <si>
+    <t>Booked at last minute and all hotels in French quarter were extremely expensive on Mardi Gras so was relieved to find this motel 6 which was reasonable value and only a ten to fifteen minute bus ride from downtown/ French quarter( bus stop short walk away). Usual type of motel 6 , clean and functional, no frills and towels very small . The rooms however were very large, and the bed comfortable. Also the reception staff very helpful and friendly. Recommend for a couple of nights, although if come again to this lovely town I will book well,in advance, avoid the expense of Mardi Gras and stay in French quarter !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r344631609-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>344631609</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>NO BLOWDRYER IN A WHOLE MOTEL. Even for extra money.</t>
+  </si>
+  <si>
+    <t>NO BLOWDRYER in a whole motel. You cannot get it even for extra money. Ended up buying a cheap blowdryer at the nearest Walmart. You can get an iron though (I am not sure if you have to pay for it). Clean sheets and towels (2 per customer per day). No shampoo, conditioner or lotion. 1 peace of soap per customer per day.  Noisy air conditioner (worked fine). Microwave and a fridge in a room. We stayed in #110. New bathroom which is nice. My biggest issues: squeaky bathroom door and a constantly sliding mattress (won't stay in place when you want to lean toward the headboard and read). Hallway is a little bit smelly, furniture is very old. Free coffee in a lobby 6-10 p.m. Free tourist booklets. Subway is literally next door. Walking distance to Dollar Store and Macdonalds. About 10-15 min from French Quarter by car. $15 taxi to Frenchman street. Stayed 3 nights. Overall - OK motel. Own by Indians I guess. Very thin blanket (it is not an actual blanket). But they gave me a second when I asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>NO BLOWDRYER in a whole motel. You cannot get it even for extra money. Ended up buying a cheap blowdryer at the nearest Walmart. You can get an iron though (I am not sure if you have to pay for it). Clean sheets and towels (2 per customer per day). No shampoo, conditioner or lotion. 1 peace of soap per customer per day.  Noisy air conditioner (worked fine). Microwave and a fridge in a room. We stayed in #110. New bathroom which is nice. My biggest issues: squeaky bathroom door and a constantly sliding mattress (won't stay in place when you want to lean toward the headboard and read). Hallway is a little bit smelly, furniture is very old. Free coffee in a lobby 6-10 p.m. Free tourist booklets. Subway is literally next door. Walking distance to Dollar Store and Macdonalds. About 10-15 min from French Quarter by car. $15 taxi to Frenchman street. Stayed 3 nights. Overall - OK motel. Own by Indians I guess. Very thin blanket (it is not an actual blanket). But they gave me a second when I asked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r337600950-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>337600950</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>I think with places like this (motels) you get exactly what you pay for. It wasn't extravagant, but I felt safe and the place was as clean as it possible could be, despite the aged look of the place. It worked fine for a place to lay my head at night, but I wouldn't want to spend long amounts of time in the room awake since it is not very appealing. Check-in and check-out was fast and easy. The only complaint I have is the bed is not very comfortable. I'm usually not fussy about beds (I've spent wonderful nights sleeping on couches), but the bed was a platform bed (no box spring) with no slats, just a board. I think when you have a bed with no box spring sitting on a board the mattress should be super comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I think with places like this (motels) you get exactly what you pay for. It wasn't extravagant, but I felt safe and the place was as clean as it possible could be, despite the aged look of the place. It worked fine for a place to lay my head at night, but I wouldn't want to spend long amounts of time in the room awake since it is not very appealing. Check-in and check-out was fast and easy. The only complaint I have is the bed is not very comfortable. I'm usually not fussy about beds (I've spent wonderful nights sleeping on couches), but the bed was a platform bed (no box spring) with no slats, just a board. I think when you have a bed with no box spring sitting on a board the mattress should be super comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r327397604-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>327397604</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>shout out for their customer service</t>
+  </si>
+  <si>
+    <t>Didn't end up staying because of a mistake I made in my reservation, but wanted to thank the desk clerk (Harry) for being very helpful and customer service oriented.  Helped me cancel and keep my vacation on track</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r321270364-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>321270364</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Quick Get away!</t>
+  </si>
+  <si>
+    <t>Not fancy, but great place to sleep. Great price, clean, and close to French Quarter 20 mins.or so easy access to I-10. Wood floors, great place if you have allergies. Coffee only in the morning, vending machines with snack foods. Close to Ihop &amp; Waffle House.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r300942903-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>300942903</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Great Value, Nicely updated but sparse rooms, super friendly staff</t>
+  </si>
+  <si>
+    <t>This was a great value hotel.  The staff was super friendly and helpful, they left a bag of towels on my door in the morning, without my asking, because I had a do not disturb sign on the door.  The room was very clean and recently updated, but a bit sparse.  The hallways were kind of dingy, and the parking lot was gated which kind of told me I might not be in the best neighborhood.  All in all, it was a quality hotel for the money.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r278885622-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>278885622</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Where Mattresses Go To Die</t>
+  </si>
+  <si>
+    <t>Anyone who said this place was "Excellent", "Very Good" or even "Average", must have stayed here when it was new. By far, this is one of the seediest locations I've ever lain my head. There were mattresses leaned against the walls around every corner we turned -including the lobby. The only picture posted for the property that is even remotely accurate, is the filthy chair. There was no carpet on the floor in our room as the pictures show. The shower curtain looked like somebody cleaned up with it then hung it up. We had no chair, no iron, no lamp, no tv ... no bueno.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 New Orleans - near downtown, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Anyone who said this place was "Excellent", "Very Good" or even "Average", must have stayed here when it was new. By far, this is one of the seediest locations I've ever lain my head. There were mattresses leaned against the walls around every corner we turned -including the lobby. The only picture posted for the property that is even remotely accurate, is the filthy chair. There was no carpet on the floor in our room as the pictures show. The shower curtain looked like somebody cleaned up with it then hung it up. We had no chair, no iron, no lamp, no tv ... no bueno.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r274823246-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>274823246</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>pleasant experience nice people</t>
+  </si>
+  <si>
+    <t>Although this motel is not one of the fancier ones in nola the room was clean and the people were more than helpful it was not all that near to bourbon st the bus route was close by and the shopping area was great many places to eat and even a Wal-Mart close by</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r267622539-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>267622539</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>"Clean and Average"</t>
+  </si>
+  <si>
+    <t>The room was very big with plenty of empty space. No dresser or stands to lay your things on. There was only one chair with half a table and no carpet in this room. There was a nice hard wood floor which is probably alot easier to clean, but not comfortable on tired feet. The price was a little higher than i thought it should go for, but that bathroom was gorgeous and the shower was worth it all. There was a couple sketchy people, but we would stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r253563974-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>253563974</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>GREAT PLACE FOR A SHORT, CHEAP STAY</t>
+  </si>
+  <si>
+    <t>The motel 6 was clean. The beds were comfortable, but don't look for amenities. There are none. Almost no drawer space, but a small place to hang some things. It was a good size room. Although there was free internet, it is very hard to connect to. Spend a few bucks more, and go to a classier joint.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r248879367-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>248879367</t>
+  </si>
+  <si>
+    <t>01/11/2015</t>
+  </si>
+  <si>
+    <t>Sketchy but cheap...</t>
+  </si>
+  <si>
+    <t>My first impression of the place was pretty bad and did not really improve during the stay. Our group had a reservation for 3 rooms but they were unable to find it.  The place looks like something out of The Shining, long hallways of dingy paint and suspiciously sticky red carpeting. Two of the rooms were fine, though oddly cavernous and dimly lit, so gave a creepy vibe; the third had a HORRIBLE odor, we were convinced we were about to find a dead body under the bed.  Strangely enough, there was a bundle of baby clothes arranged to make it look like a baby was in there on the staircase. A guy wandering around with no shoes on in the early morning. People hanging out in the parking lot. And a construction site next door...I didn't feel really safe in the area either.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>My first impression of the place was pretty bad and did not really improve during the stay. Our group had a reservation for 3 rooms but they were unable to find it.  The place looks like something out of The Shining, long hallways of dingy paint and suspiciously sticky red carpeting. Two of the rooms were fine, though oddly cavernous and dimly lit, so gave a creepy vibe; the third had a HORRIBLE odor, we were convinced we were about to find a dead body under the bed.  Strangely enough, there was a bundle of baby clothes arranged to make it look like a baby was in there on the staircase. A guy wandering around with no shoes on in the early morning. People hanging out in the parking lot. And a construction site next door...I didn't feel really safe in the area either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r247881116-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>247881116</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of nights and were pleasantly surprised. The motel was clean and the staff was friendly. And the price was reasonable. We would stay here again. The manager said it was an old Howard Johnson so the rooms are quite large. Our room had a hard floor, which is different, but we knew the floors were clean and with carpet, who knows!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r244602552-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>244602552</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Creepy place</t>
+  </si>
+  <si>
+    <t>I titled this place creepy because that's the only emotion that I kept feeling. The hallways are a soft velvet type of carpet that is stained and the hallways smell like smoke.The first thing I noticed when I entered room 241 was, wow this room is huge in a creepy way. We all want a big room, but for some reason it felt creepy big for only two beds, TV and a table.The chair was very badly stained and the room had trash that was missed by the cleaning staff. Regular tube TV, no flat screen.Carpets in the room were dirtyBathroom seemed to be renovated and was the best part of the room.During the evening hours they only use a side window to handle reservations (I guess for safety reasons).They did allow me to park my 12' truck in the parking lot before I checked-in and that was very much appreciated.As soon as I woke up, I left without taking a shower, but I did check to see if the water would be warm. The water did not get hot, stayed cold. Glad I didn't try to take a shower.The hotel is located about 5 minutes from French Quarter.The bus stop is located a few blocks from the hotel and the bus ride was only about 10 minutes from hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I titled this place creepy because that's the only emotion that I kept feeling. The hallways are a soft velvet type of carpet that is stained and the hallways smell like smoke.The first thing I noticed when I entered room 241 was, wow this room is huge in a creepy way. We all want a big room, but for some reason it felt creepy big for only two beds, TV and a table.The chair was very badly stained and the room had trash that was missed by the cleaning staff. Regular tube TV, no flat screen.Carpets in the room were dirtyBathroom seemed to be renovated and was the best part of the room.During the evening hours they only use a side window to handle reservations (I guess for safety reasons).They did allow me to park my 12' truck in the parking lot before I checked-in and that was very much appreciated.As soon as I woke up, I left without taking a shower, but I did check to see if the water would be warm. The water did not get hot, stayed cold. Glad I didn't try to take a shower.The hotel is located about 5 minutes from French Quarter.The bus stop is located a few blocks from the hotel and the bus ride was only about 10 minutes from hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r237384934-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>237384934</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>This motel 6 is wonderful. The staff are terrific, I have been staying almost 3 weeks now. They keep the hotel very clean and safe. It is 15 minutes from downtown New Orleans, right off the interstate. It is true about the area not being the safest. But as long as you stay away from Downman Rd. area you will be fine. Again the overall of this hotel is great. The staff is even better and hey, at their prices who could resist!? Thank you Motel 6, Old Gentilly Rd., I have enjoyed my stay and appreciate how much you care about your clients.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r235089630-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>235089630</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Room was large with newly renovated bathroom. Bed wasn't very comfy. Staff was helpful with travel tips. Hotel was fine, however the area seems rough. We didn't have a car, so it was not convenient getting into the city. Next time I'll pay the extra $$$ to stay downtown.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r233081429-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>233081429</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Better than average Motel 6</t>
+  </si>
+  <si>
+    <t>Looking for a comfortable and clean Motel 6? This one fits the bill.Rooms:-Clean and larger than average.-Desk, chair, lounge chair, luggage bench.-The bed is beyond broken in, but still comfortable.Building/Grounds:-Strong smell in halls and elevator. Does not permeate rooms.-Anti-climb fence around all parking areas. Gates that don't get closed, but the neighborhood seems safe enough.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r228958875-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>228958875</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>NASTY</t>
+  </si>
+  <si>
+    <t>I stayed in room 245 an its the worst motel I ever stayed in  an I won't ever stay in a nother motel 6 in life I couldn't get any sleep because I was up all night. Killing. Roaches this place really needs to be shut down so people please dnt. Give this place ur money MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 New Orleans - near downtown, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>I stayed in room 245 an its the worst motel I ever stayed in  an I won't ever stay in a nother motel 6 in life I couldn't get any sleep because I was up all night. Killing. Roaches this place really needs to be shut down so people please dnt. Give this place ur money More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r228506286-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>228506286</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>The motel was a nightmare the rooms was dirty  bugs in the room ..mattress was torn ,stain and creepy , the parking in the back of the motel was dark and dangerous I was itching all night long the motel had a bad order</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r221410863-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>221410863</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>This is a good cost-effective motel for budget travelers. For about $70 you can get a room with 2 double beds for 2 adults and 2 children, free Wi-Fi, TV and basic amenities. The room was clean and very spacious, and the bathroom looked as if it has been newly remodeled. Overall, I was very satisfied with the price and service. We were located just about 5-10 minutes from the French Quarter, which made it easy to go and enjoy exploring NOLA. Some people may not be a fan of the fact that they have gated parking, however, for me this was a bonus. Although, we did have to have someone run to the check-in window to have the gate opened and closed. The next time I go to NOLA, I know where I am going to go stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This is a good cost-effective motel for budget travelers. For about $70 you can get a room with 2 double beds for 2 adults and 2 children, free Wi-Fi, TV and basic amenities. The room was clean and very spacious, and the bathroom looked as if it has been newly remodeled. Overall, I was very satisfied with the price and service. We were located just about 5-10 minutes from the French Quarter, which made it easy to go and enjoy exploring NOLA. Some people may not be a fan of the fact that they have gated parking, however, for me this was a bonus. Although, we did have to have someone run to the check-in window to have the gate opened and closed. The next time I go to NOLA, I know where I am going to go stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r221158773-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>221158773</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Not Again</t>
+  </si>
+  <si>
+    <t>You get what you pay for. While the motel was quiet and our room was clean. The staff was friendly. The neighborhood was real bad to the point if you are a female they think you are a hooker. When walking our dog had a strange man follow and stare at us even when we were in the gated parking lot. Worse was when someone kept tapping at our door and when we looked out the man would not look up. I think he was trying to pick the lock.The main reason we will not be back is the smell of people smoking things they shouldn't be smoking. Had a 9 year old with us and had to rush him through the halls because of the smell. The butts were in the ash trays by the doors.MoreShow less</t>
+  </si>
+  <si>
+    <t>You get what you pay for. While the motel was quiet and our room was clean. The staff was friendly. The neighborhood was real bad to the point if you are a female they think you are a hooker. When walking our dog had a strange man follow and stare at us even when we were in the gated parking lot. Worse was when someone kept tapping at our door and when we looked out the man would not look up. I think he was trying to pick the lock.The main reason we will not be back is the smell of people smoking things they shouldn't be smoking. Had a 9 year old with us and had to rush him through the halls because of the smell. The butts were in the ash trays by the doors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r220929303-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>220929303</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Cheap No-Frills Stay within Minutes of NOLA Nightlife</t>
+  </si>
+  <si>
+    <t>For $69, we enjoyed a spacious and clean room with sitting area, free wifi and television, and gated parking. The desk clerk was nice and courteous, checking me in quickly. We drove to the French Quarters which was less than ten minutes away for a bite to eat and to soak in the rich culture. We returned late and had no trouble entering the gated parking lot. The next morning, we checked out without cleaning men and women knocking on the door every few minutes - which was quite refreshing. I was quite pleased for the money we spent.Downside: the streets are pretty rough in terms of bumps and uneven pavement. The neighborhood doesn't appear to be dangerous but there is nothing memorable about it either. There is a McDonalds and a Waffle House within a block or two as well as several other fast food eating joints. There were two gas stations with competitive gas prices for the area so I fueled up. If you need other items, there is a Family Dollar, a Dollar General and a few other stores within a short distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>For $69, we enjoyed a spacious and clean room with sitting area, free wifi and television, and gated parking. The desk clerk was nice and courteous, checking me in quickly. We drove to the French Quarters which was less than ten minutes away for a bite to eat and to soak in the rich culture. We returned late and had no trouble entering the gated parking lot. The next morning, we checked out without cleaning men and women knocking on the door every few minutes - which was quite refreshing. I was quite pleased for the money we spent.Downside: the streets are pretty rough in terms of bumps and uneven pavement. The neighborhood doesn't appear to be dangerous but there is nothing memorable about it either. There is a McDonalds and a Waffle House within a block or two as well as several other fast food eating joints. There were two gas stations with competitive gas prices for the area so I fueled up. If you need other items, there is a Family Dollar, a Dollar General and a few other stores within a short distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r220579118-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>220579118</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was clean and big.  The bathroom was clean and big.  The price was good and it's barely a 10 minute drive to the French Quarter.The cleaning staff accidentally mistook our white towel for theirs and then apologized and returned it the next day.Much better experience than I expected considering the mixed reviews.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r220421312-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>220421312</t>
+  </si>
+  <si>
+    <t>A roof over our heads for a couple of nights....</t>
+  </si>
+  <si>
+    <t>We needed somewhere to stay at short notice close to New Orleans for a couple of days of our holiday in April just prior to one of the big French Quarter Festivals which was easier said than done.  This Motel 6 is pretty good location-wise as its about 10 minutes from the city centre but the surrounding area is average to be polite and there’s only fast food places to eat.  The room was not up to my standard of hygiene.  I felt the bed linen had not been changed since the last occupants had visited and the carpet was sticky.  Eww!  But it was the cheapest hotel we stayed at during our holiday and all the hotels closer to New Orleans city centre were ridiculously overpriced so we had to grin and bear it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We needed somewhere to stay at short notice close to New Orleans for a couple of days of our holiday in April just prior to one of the big French Quarter Festivals which was easier said than done.  This Motel 6 is pretty good location-wise as its about 10 minutes from the city centre but the surrounding area is average to be polite and there’s only fast food places to eat.  The room was not up to my standard of hygiene.  I felt the bed linen had not been changed since the last occupants had visited and the carpet was sticky.  Eww!  But it was the cheapest hotel we stayed at during our holiday and all the hotels closer to New Orleans city centre were ridiculously overpriced so we had to grin and bear it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r217024541-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>217024541</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>One of nicest Motel 6's I've stayed at</t>
+  </si>
+  <si>
+    <t>The neighborhood looked a little sketchy at first (no longer a surprise for Motel 6's), but we didn't have any problems. The room was larger and nicer than most Motel 6's, newly remodeled, and very clean. It also had a microwave and fridge (not all rooms do - make sure if you want one you reserve it). There was a little noise from the road, but it wasn't too bad. It's fairly close to the French Quarter and all other attractions (although you'll need a car). There's a Waffle House close for breakfast and Family Dollar for anything you forgot to bring. I travel to New Orleans frequently and have stayed at a variety of motels/hotels. You can't beat this one for the cost and location, especially if you're traveling with a pet. It's not a boutique or luxury hotel, but it's great for budget travel. I've already got return reservations.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>The neighborhood looked a little sketchy at first (no longer a surprise for Motel 6's), but we didn't have any problems. The room was larger and nicer than most Motel 6's, newly remodeled, and very clean. It also had a microwave and fridge (not all rooms do - make sure if you want one you reserve it). There was a little noise from the road, but it wasn't too bad. It's fairly close to the French Quarter and all other attractions (although you'll need a car). There's a Waffle House close for breakfast and Family Dollar for anything you forgot to bring. I travel to New Orleans frequently and have stayed at a variety of motels/hotels. You can't beat this one for the cost and location, especially if you're traveling with a pet. It's not a boutique or luxury hotel, but it's great for budget travel. I've already got return reservations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r212359288-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>212359288</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>stayed 8 nights, will return.</t>
+  </si>
+  <si>
+    <t>Stayed here over Jazz Fest 2nd weekend, had a great stay. I was able to use one bus line to get to the Fairgrounds, and another to get downtown, for $3/day unlimited rides. The buses are less frequent on saturday and even less on sundays though. Front desk gal was great, super friendly, helpful. Cabs were a bit hard to get the couple times I needed them. Room was fine, clean but perhaps not to the surgical level if you are super-sensitive to that. Location was great to hit a fast food place or Waffle House for breakfast, a Dollar Store nearby, and the gas stations had beer/liquor. I even walked around to get a snack at midnight a couple nights and felt perfectly safe. I'll be staying there again whenever I go back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here over Jazz Fest 2nd weekend, had a great stay. I was able to use one bus line to get to the Fairgrounds, and another to get downtown, for $3/day unlimited rides. The buses are less frequent on saturday and even less on sundays though. Front desk gal was great, super friendly, helpful. Cabs were a bit hard to get the couple times I needed them. Room was fine, clean but perhaps not to the surgical level if you are super-sensitive to that. Location was great to hit a fast food place or Waffle House for breakfast, a Dollar Store nearby, and the gas stations had beer/liquor. I even walked around to get a snack at midnight a couple nights and felt perfectly safe. I'll be staying there again whenever I go back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r212303444-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>212303444</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Although the rooms are biger than other motel 6 its still just as dirty. air filters were stopped up cockroaches running down the wall the carpets in the rooms and hallways looks extremely filthy and the wifi won't let you login I don't know if room 209 still has bed bugs or not because I did not get that room due to the review someone wrote about bed bugs in the shower has soap scum and mildew all over the wall its granite people spray some Scrubbing Bubbles on it and wash it off and there you have it folks another band review for another filthy Motel 6</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r209433324-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>209433324</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>A police officer stopped my wife and told her she was in the wrong part of town, better leave. She's an older white women with two grandkids. Of course the motel wouldn't refund our money without a 24 hour notice. She stayed at the Quality Inn. twice as much but safer and cleaner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r206663711-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>206663711</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Gooh motel 6</t>
+  </si>
+  <si>
+    <t>I don't often go to Motel 6 but I have to say this is a good hotel at a good price. The room is of good size and clean. The people nice and helpful. It is relatively well situated to go downtown. Where other hotels increased their price during the  Jazz Festival they kept the same price, it seems.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r205675090-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>205675090</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>Stay Away. I Can't Believe This Motel Is Open.</t>
+  </si>
+  <si>
+    <t>Don't let the cheap price and wi-fi fool you. This place was very dirty from the rooms, walls and carpets. The smell throughout the whole motel was horrible. There were bugs in the room. The bed, t.v, couch and curtains were out dated. Please don't be fooled by the video tour. No amenities, none what so ever. The whole building need to be condemned. I will never ever stay there again. The Manager was very rude. I checked out the very next morning. I would rather sleep outside.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r199453451-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>199453451</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Going to New Orleans during French Quarter Fest - Questions</t>
+  </si>
+  <si>
+    <t>When we planned our trip we didn't know that French Quarter Fest was happining during that time.  The only place not over $200 per night that was close enough was the Motel 6 on Gentilly Road.  My question is are we going to be safe taking day trips to swamp and plantation tours during the day and taking a cab to go to the French Quarter at night?  I have read a lot of reviews about the Big Easy and most sound very scary.  As long as we go from point A to point B and don't do any walking around at night besides the French Quarter will we be safe to stay at this location.  I know it's not the best place to stay but it is just a place to sleep, bathe and keep our clothing and such.  Please help.  Thank you very much.  pcMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>When we planned our trip we didn't know that French Quarter Fest was happining during that time.  The only place not over $200 per night that was close enough was the Motel 6 on Gentilly Road.  My question is are we going to be safe taking day trips to swamp and plantation tours during the day and taking a cab to go to the French Quarter at night?  I have read a lot of reviews about the Big Easy and most sound very scary.  As long as we go from point A to point B and don't do any walking around at night besides the French Quarter will we be safe to stay at this location.  I know it's not the best place to stay but it is just a place to sleep, bathe and keep our clothing and such.  Please help.  Thank you very much.  pcMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r199209786-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>199209786</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>Can't believe this place is open</t>
+  </si>
+  <si>
+    <t>I am embarrassed that I am writing a review on this place!!!!!  It is beyond condemnable.  It is deplorable!  I plan on calling the corporate office and asking why is this establishment in operations.  The area is horrific and the building and rooms are even worse.  There are no words to describe how the building and rooms are.  I would not stay here if this was the last place on earth!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r192095199-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>192095199</t>
+  </si>
+  <si>
+    <t>01/26/2014</t>
+  </si>
+  <si>
+    <t>Gross.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay away! The beds are sunk in, unclean comforter. (with burn holes and dried up "stuff" on them) Bathroom was disgusting. Walls were dirty. Floors in room left our feet black. Old tv. Curtain wouldn't close all the way. No amenities what so ever except soap. In a pretty sketchy area. The hotel is gated but they don't use the after hours lock up. Anyone can get in.  Staff was ok. Pets free. Close to highway and downtown. </t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r189792441-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>189792441</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>just an average hotel</t>
+  </si>
+  <si>
+    <t>rooms clean and cheap staff polite and helpful also very close to downtown new Orleans which is hand for the bars and clubs also for the interstate but with all items good and bad this is not a bad hotel to stay at</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r189273220-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>189273220</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Better than Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a very good 2 star hotel. The rooMs were clean, big and cheap. Less than 1/2 of the price of anything downtown. Free coffee in the morning. Lots of fast food nearby. Drug store and grocery as well. We took the 10 minute bus ride downtown each day. Don't try to schedule you time based on the buses because they were never on time. I would recommend this place for the budget-wise traveller. We definitely got what we paid for. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r185231110-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>185231110</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Night before cruise</t>
+  </si>
+  <si>
+    <t>My friends and I stayed the night before leaving for our cruise. It was clean. The staff was friendly &amp; helpful. It was decent for 1 night stay It was not too far away for a cab ride to Bourbon Street....Overall...good place to stay. Andy at the front desk when we checked in was so very nice and helpful to us.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r184515376-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>184515376</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>First experience of inter-connecting rooms!</t>
+  </si>
+  <si>
+    <t>A very good and quick check in on a very hot day!Fulfilled the booking request of two rooms on ground floor close together (inter-connecting as a bonus!)Nice large rooms and easy entry (my mother had the disability access room) and a working ice machine!Even though my room was less than 20 metres from the Interstate, traffic noise was not intrusive and you only really heard the trucks that were accelerating.Very handily next to a Subway, so no having to hunt for somewhere to eat in a strange town.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r181939359-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>181939359</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>BEST PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>My wife and I Stopped for the night while traveling . The rooms were cheap and clean. The staff was very friendly. The rooms were big but they served the purpose well. Myself and my work crew have been staying at this motel 6 every week since September of last year. All of the employees are very helpful and willing to solve any problems. The rooms are clean, Comfortable And easy access. The owner/manager ask on a daily basis to make sure everything is okay with the rooms. I highly recommend staying there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r181932105-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>181932105</t>
+  </si>
+  <si>
+    <t>nice motel to stay</t>
+  </si>
+  <si>
+    <t>We came down to New Orleans to spend the weekend other hotels were $80- 100, this one was at $54.95 it was very reasonable, rooms were very large, my wife had concerns about small Motel 6 rooms but these were large, very quite and secure there was a building in back that was derelict but the desk clerk advised me that was actually being repaired should be completed in December. Relic from Katrina, apparently this hotel was also badly damaged in Katrina but they did a super nice job fixing it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r178132889-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>178132889</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>ONLY IF YOU'RE DESPARATE.</t>
+  </si>
+  <si>
+    <t>I am a VERY low maintenance traveler. As long as everything is clean and in working order I am happy. Well...let's just say this hotel couldn't even meet that mark. 
+I was relocating to New Orleans and needed to stay at a hotel until my furniture arrived. Unfortunately, I chose this location. At check-in I was immediately struck by the "night registration" window, which I had never ever seen at a reputable hotel before Lol. Check-in went smoothly and all seemed well until I got to my room. Everything, and I mean EVERYTHING, in the room is OLD. The chairs were sat in for a million years, and they had the look and feel of old dirty movie theater seats, you know, sticky from spilled soda and popcorn. The mattresses were badly slept out and too big for the frames. The bedspreads were so creepy I immediately took them off of the beds and never put them back on. The tv is from the 90's, if that. 
+There is free internet and coffee in the morning, but there are no coffee makers, microwaves, or fridges in the room. My room did not even have an iron and ironing board! Considering that I started my new job while I was staying here, this was unforgivable in my book. What was more unforgivable was that this apparently animal-friendly hotel (your could hear barking from other rooms) clearly had not figured out how...I am a VERY low maintenance traveler. As long as everything is clean and in working order I am happy. Well...let's just say this hotel couldn't even meet that mark. I was relocating to New Orleans and needed to stay at a hotel until my furniture arrived. Unfortunately, I chose this location. At check-in I was immediately struck by the "night registration" window, which I had never ever seen at a reputable hotel before Lol. Check-in went smoothly and all seemed well until I got to my room. Everything, and I mean EVERYTHING, in the room is OLD. The chairs were sat in for a million years, and they had the look and feel of old dirty movie theater seats, you know, sticky from spilled soda and popcorn. The mattresses were badly slept out and too big for the frames. The bedspreads were so creepy I immediately took them off of the beds and never put them back on. The tv is from the 90's, if that. There is free internet and coffee in the morning, but there are no coffee makers, microwaves, or fridges in the room. My room did not even have an iron and ironing board! Considering that I started my new job while I was staying here, this was unforgivable in my book. What was more unforgivable was that this apparently animal-friendly hotel (your could hear barking from other rooms) clearly had not figured out how to clean up after their furry guests. After housekeeping sprayed febreze or something in the hallways in the am, it slowly wore off and the hallways and parts of the room smelled like cat urine. IckOne morning, when housekeeping came to the door to see if I needed room cleaning or towels, another guest who had just checked in told him that his bathroom floor was covered with water and he had JUST ARRIVED. To make matters worse, the gated parking lot is SUPPOSED to be guest-only accessible after a certain time. That is NOT the case. The gate was always open when I was there and there were a number of evenings when some rowdy and questionable folks were hanging out and leaning on their cars blasting music in the lot as if it was a night club. I'm used to the hood, but come on! This is ridiculous. This is a completely legitimate review. I even said these same things in the survey that Motel 6 sent me and I received a "sorry to hear about your horrible stay" kind of reply from the manager.If you are visiting NOLA and do not need to stay in the city I would recommend the Sleep Inn in Metairie which is wonderful and is within walking distance of EVERYTHING, although you probably won't want to walk.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Owner at Motel 6 New Orleans - near downtown, responded to this reviewResponded September 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2013</t>
+  </si>
+  <si>
+    <t>I am a VERY low maintenance traveler. As long as everything is clean and in working order I am happy. Well...let's just say this hotel couldn't even meet that mark. 
+I was relocating to New Orleans and needed to stay at a hotel until my furniture arrived. Unfortunately, I chose this location. At check-in I was immediately struck by the "night registration" window, which I had never ever seen at a reputable hotel before Lol. Check-in went smoothly and all seemed well until I got to my room. Everything, and I mean EVERYTHING, in the room is OLD. The chairs were sat in for a million years, and they had the look and feel of old dirty movie theater seats, you know, sticky from spilled soda and popcorn. The mattresses were badly slept out and too big for the frames. The bedspreads were so creepy I immediately took them off of the beds and never put them back on. The tv is from the 90's, if that. 
+There is free internet and coffee in the morning, but there are no coffee makers, microwaves, or fridges in the room. My room did not even have an iron and ironing board! Considering that I started my new job while I was staying here, this was unforgivable in my book. What was more unforgivable was that this apparently animal-friendly hotel (your could hear barking from other rooms) clearly had not figured out how...I am a VERY low maintenance traveler. As long as everything is clean and in working order I am happy. Well...let's just say this hotel couldn't even meet that mark. I was relocating to New Orleans and needed to stay at a hotel until my furniture arrived. Unfortunately, I chose this location. At check-in I was immediately struck by the "night registration" window, which I had never ever seen at a reputable hotel before Lol. Check-in went smoothly and all seemed well until I got to my room. Everything, and I mean EVERYTHING, in the room is OLD. The chairs were sat in for a million years, and they had the look and feel of old dirty movie theater seats, you know, sticky from spilled soda and popcorn. The mattresses were badly slept out and too big for the frames. The bedspreads were so creepy I immediately took them off of the beds and never put them back on. The tv is from the 90's, if that. There is free internet and coffee in the morning, but there are no coffee makers, microwaves, or fridges in the room. My room did not even have an iron and ironing board! Considering that I started my new job while I was staying here, this was unforgivable in my book. What was more unforgivable was that this apparently animal-friendly hotel (your could hear barking from other rooms) clearly had not figured out how to clean up after their furry guests. After housekeeping sprayed febreze or something in the hallways in the am, it slowly wore off and the hallways and parts of the room smelled like cat urine. IckOne morning, when housekeeping came to the door to see if I needed room cleaning or towels, another guest who had just checked in told him that his bathroom floor was covered with water and he had JUST ARRIVED. To make matters worse, the gated parking lot is SUPPOSED to be guest-only accessible after a certain time. That is NOT the case. The gate was always open when I was there and there were a number of evenings when some rowdy and questionable folks were hanging out and leaning on their cars blasting music in the lot as if it was a night club. I'm used to the hood, but come on! This is ridiculous. This is a completely legitimate review. I even said these same things in the survey that Motel 6 sent me and I received a "sorry to hear about your horrible stay" kind of reply from the manager.If you are visiting NOLA and do not need to stay in the city I would recommend the Sleep Inn in Metairie which is wonderful and is within walking distance of EVERYTHING, although you probably won't want to walk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r176192020-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>176192020</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Rudest staff ever.</t>
+  </si>
+  <si>
+    <t>The front desk took great pleasure in ignoring us at check in. We arrived past check in time, but just kept telling us no rooms were ready, even though they offered other guest a choice. We got tired of rude answers and smirks, and checked in next door. We feel only african americans are welcome there. Would not advise anyone to stay there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r160562414-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>160562414</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>This motel 6 is well maintained,clean in all areas of the motel, quiet,good service with friendly staff.Appreciated having a hairdryer in room.Plenty of coffee and hot water in the mornings.Easy access into the central city.Sandra and Kevin LambNew Zealand</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r159399015-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>159399015</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>Great! Bad reviews must of came from prissy people who stay in 4 star or 5 star hotel! This was great for a motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here recently for 4 days and my room was great! Very spacious and clean! And the price was good as well. Housekeeping was amazing, fresh towels everyday,did my bedding everyday and more soap too. Ain't no sketchy neighborhood or bad area, why!? Cause was a lot of black people, black businesses or majority of the food places and restaurants were all black people working there!? Y'all is silly! Smh Anyway I felt safe, restaurants and businesses all waking distance so I didn't not feel safe walking at all. Walked over to a lot of places. I would recommend this Motel 6 anytime. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r157368920-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>157368920</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>I stay here atleast once a month for work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not in the best part of town but I have never had an issue in this hotel. Room are very large for the area and especially the price. 4 exits from the French quarter. If you need a decent room for a cheap price in New Orleans nothing else comes close. I stay at hotels in this price range for work 3 days a week. To write a really negative review for this hotel is probably biased by other hotels you have stayed in at a higher price. For motel 6...this ones pretty good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r157128423-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>157128423</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Ok, could be better.</t>
+  </si>
+  <si>
+    <t>We only stayed for one night because all other New Orleans hotels were sold out. Our room was ok and clean but had a bad smell in it.There was no fridge or microwave and the neighbourhood is not really the best.There was no breakfast, only coffee...For the price and because it`s a motel 6, it was ok.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r155450331-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>155450331</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>Very good value for the money. The building does look kind of run down from the outside but the rooms were impeccable. Nothing to see in the neighborhood, but plenty of shops and it does not feel unsafe or sketchy, plus the I-10 takes you downtown in a matter of minutes. The front desk clerk wasn't really welcoming but for $65 / night / room I couldn't care less.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r154481910-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>154481910</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>It's a Motel 6!</t>
+  </si>
+  <si>
+    <t>I'm a little confused by some of the reviews here.  Guys, it's a Motel 6.  Of COURSE you just got a bar of soap and a ratty towel.  Of COURSE the service was not great.  It's. A. Motel. 6.  It's the cheapest hotel in town because they skimp on the frills and it's in a lousy neighborhood.  That's kind of their thing.  If you really want to spend $200 a night instead of $50, get a swanky hotel room in the French Quarter.That being said, my room was large and clean, came with a microwave and a mini-fridge, and had a reasonably comfortable bed.  It's right off of I-10, so it's a quick drive to wherever else in New Orleans you need to go.  Parking was free.  Internet access was free.  And there's even a Waffle House nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm a little confused by some of the reviews here.  Guys, it's a Motel 6.  Of COURSE you just got a bar of soap and a ratty towel.  Of COURSE the service was not great.  It's. A. Motel. 6.  It's the cheapest hotel in town because they skimp on the frills and it's in a lousy neighborhood.  That's kind of their thing.  If you really want to spend $200 a night instead of $50, get a swanky hotel room in the French Quarter.That being said, my room was large and clean, came with a microwave and a mini-fridge, and had a reasonably comfortable bed.  It's right off of I-10, so it's a quick drive to wherever else in New Orleans you need to go.  Parking was free.  Internet access was free.  And there's even a Waffle House nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r148659933-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>148659933</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Unsure but still enjoyed my time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The customer service was TERRIBLE!! The wall ways smelled like a bunch of carpet freshener. But there room was bearable.  Late check in which was good.  Not to far from Downtown and nothing was stolen so that was a plus! Management SUCKS but if you can look passed the over powering smell of carpet freshener and the area.  The stay was great an easy highway access to I-10 </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r147830472-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>147830472</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Didnt feel safe and didnt want to touch anything</t>
+  </si>
+  <si>
+    <t>The hotel is in a bad area, far from city and no other hotels around. There seemed to be hookers hanging around and service was very poor. The host didnt even answer my question just stared at me and waited till a found out myself. I asked if I needed a key to go through the lobby to the rooms since I had locked myself out with my husband in the room waiting. The bed was uncomfortable and very old, sheets felt used and other guests didnt make us feel any safer. But if you dont want to spend any more than necessary, this hotel might go.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r132974712-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>132974712</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>I know Motel 6 is cheap, but this is REALLY cheap!</t>
+  </si>
+  <si>
+    <t>A group of 4 girls (all under 30) chose this hotel for it's cheap price and somewhat close vicinity to the French Quarter. We were slightly taken aback when we had to check in through a glass window. The lobby closes from 7pm - 6am everyday. That's almost half of every single day that guests are not allowed into the lobby, not even from inside the actual hotel itself. It kind of made us worried about our own safety when the staff appeared to be so closed off from potential danger! There is a night security guard, so that helped a little. There are absolutely NO amenities besides a bar of soap and some plastic cups. There's not even a clock in the room! I've stayed in close to hundreds of hotels in my life and I've never had to pay the full price up front. So, we weren't able to split the bill between 4 of us (like I was hoping to do at check out). I don't mind cheap hotels, but this was the cheapest, sketchiest, sleaziest hotel I've ever encountered.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>A group of 4 girls (all under 30) chose this hotel for it's cheap price and somewhat close vicinity to the French Quarter. We were slightly taken aback when we had to check in through a glass window. The lobby closes from 7pm - 6am everyday. That's almost half of every single day that guests are not allowed into the lobby, not even from inside the actual hotel itself. It kind of made us worried about our own safety when the staff appeared to be so closed off from potential danger! There is a night security guard, so that helped a little. There are absolutely NO amenities besides a bar of soap and some plastic cups. There's not even a clock in the room! I've stayed in close to hundreds of hotels in my life and I've never had to pay the full price up front. So, we weren't able to split the bill between 4 of us (like I was hoping to do at check out). I don't mind cheap hotels, but this was the cheapest, sketchiest, sleaziest hotel I've ever encountered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r132843414-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>132843414</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>Wonderfully Surprised!</t>
+  </si>
+  <si>
+    <t>My wife and I arrived a day early for a high school reunion last week-end and the fancy-schmancy hotel we reserved for the week-end on St. Ann Street in the French Quarter was booked up for that night so we had to find something close by for the night. My wife found the Motel 6 on the Internet so we looked at the reviews and they sounded pretty darn good! 
+When we drove into the parking lot we noticed the parking area was gated and the entrances to the rooms were on the inside like a hotel, instead of opening outside like most motels. One needs a scan key to enter the building if not entering through the lobby. The room was spacious, just like one reviewer said. It looks like the building used to be a hotel bought out by the Motel 6 chain, I don't know.
+The restroom was roomy, too, bigger than the one we had at the pricier Place d'Arms the next two days. The towels have seen better days, though, but they still dried!
+The room had a desk and the Wifi signal was strong. The air conditioner was plenty cold like I like, much to my wife's dismay!
+It's only an eleven minute drive to the French Quarter from there. If you're thinking about sightseeing the French Quarter area and want a nice room for a great price, this is the place. You'll feel...My wife and I arrived a day early for a high school reunion last week-end and the fancy-schmancy hotel we reserved for the week-end on St. Ann Street in the French Quarter was booked up for that night so we had to find something close by for the night. My wife found the Motel 6 on the Internet so we looked at the reviews and they sounded pretty darn good! When we drove into the parking lot we noticed the parking area was gated and the entrances to the rooms were on the inside like a hotel, instead of opening outside like most motels. One needs a scan key to enter the building if not entering through the lobby. The room was spacious, just like one reviewer said. It looks like the building used to be a hotel bought out by the Motel 6 chain, I don't know.The restroom was roomy, too, bigger than the one we had at the pricier Place d'Arms the next two days. The towels have seen better days, though, but they still dried!The room had a desk and the Wifi signal was strong. The air conditioner was plenty cold like I like, much to my wife's dismay!It's only an eleven minute drive to the French Quarter from there. If you're thinking about sightseeing the French Quarter area and want a nice room for a great price, this is the place. You'll feel very secure in your room and there are plenty of fast food places nearby if you need a quick meal. There's even a Subway right in front of the motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I arrived a day early for a high school reunion last week-end and the fancy-schmancy hotel we reserved for the week-end on St. Ann Street in the French Quarter was booked up for that night so we had to find something close by for the night. My wife found the Motel 6 on the Internet so we looked at the reviews and they sounded pretty darn good! 
+When we drove into the parking lot we noticed the parking area was gated and the entrances to the rooms were on the inside like a hotel, instead of opening outside like most motels. One needs a scan key to enter the building if not entering through the lobby. The room was spacious, just like one reviewer said. It looks like the building used to be a hotel bought out by the Motel 6 chain, I don't know.
+The restroom was roomy, too, bigger than the one we had at the pricier Place d'Arms the next two days. The towels have seen better days, though, but they still dried!
+The room had a desk and the Wifi signal was strong. The air conditioner was plenty cold like I like, much to my wife's dismay!
+It's only an eleven minute drive to the French Quarter from there. If you're thinking about sightseeing the French Quarter area and want a nice room for a great price, this is the place. You'll feel...My wife and I arrived a day early for a high school reunion last week-end and the fancy-schmancy hotel we reserved for the week-end on St. Ann Street in the French Quarter was booked up for that night so we had to find something close by for the night. My wife found the Motel 6 on the Internet so we looked at the reviews and they sounded pretty darn good! When we drove into the parking lot we noticed the parking area was gated and the entrances to the rooms were on the inside like a hotel, instead of opening outside like most motels. One needs a scan key to enter the building if not entering through the lobby. The room was spacious, just like one reviewer said. It looks like the building used to be a hotel bought out by the Motel 6 chain, I don't know.The restroom was roomy, too, bigger than the one we had at the pricier Place d'Arms the next two days. The towels have seen better days, though, but they still dried!The room had a desk and the Wifi signal was strong. The air conditioner was plenty cold like I like, much to my wife's dismay!It's only an eleven minute drive to the French Quarter from there. If you're thinking about sightseeing the French Quarter area and want a nice room for a great price, this is the place. You'll feel very secure in your room and there are plenty of fast food places nearby if you need a quick meal. There's even a Subway right in front of the motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r129532374-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>129532374</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Usually easy to please but...</t>
+  </si>
+  <si>
+    <t>No amenites...no courtesy...very sketchy neighborhood.  Charged extra for two guests vs only one even though there were ZERO amenties...One tiny set of towels and one bar of soap was all we got...even though we paid extra for "double occupancy".  Hallways smelled terrible and were hot and dirty.  Had to check in via a glass window on the outside rather than being let into the lobby.  I don't expect much when it comes to economy hotels but they should at least have the basics covered...</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r126879727-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>126879727</t>
+  </si>
+  <si>
+    <t>03/28/2012</t>
+  </si>
+  <si>
+    <t>OK for the Money</t>
+  </si>
+  <si>
+    <t>I stayed here for a night to attend a court hearing. New Orleans isn't a cheap place to find accomodations, and this is probably one of the most reasonable. The room was clean and had internet access. I had been told that it suffered severe damage in the hurricane, and had beed renovated. There was no coffee maker in the room, but there was a coffee pot in the lobby, where I drank the weakest cup of Joe that I have ever had in my life. Basically, it was fairly clean, but a bit Spartan, not a great place to stay, but OK. Check in was a bit tedious.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r126648009-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>126648009</t>
+  </si>
+  <si>
+    <t>03/25/2012</t>
+  </si>
+  <si>
+    <t>Beware of this Motel 6.</t>
+  </si>
+  <si>
+    <t>I stay at Motel 6 alot. They are dirt cheap without the dirt. They normally let children stay free. This means if there is one adult and children, you get a room with two beds at no additional fee. But this one suprised me last week by charging for two beds. Motel 6 doesn't normally charge by the bed, but by how many adults are in the room. I guess this one is independantly owned so they can do this. And they did it without offering any explaination. You would think if you are going to have a very different policy than the rest of the motels in your chain have you would at least kindly explain this to the guest instead of going about buisness like nothing strange is occuring. Also they way they vary from the Motel 6 norm is having check out time at 11 instead of 12. Of course when a customer is suprised they act like everything is normal, like they don't see what the big deal is when like 1000 Motel 6's do things one certain way and they decide to make some changes for the worse. So if your a faithful Motel 6 customer, steer clear of this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I stay at Motel 6 alot. They are dirt cheap without the dirt. They normally let children stay free. This means if there is one adult and children, you get a room with two beds at no additional fee. But this one suprised me last week by charging for two beds. Motel 6 doesn't normally charge by the bed, but by how many adults are in the room. I guess this one is independantly owned so they can do this. And they did it without offering any explaination. You would think if you are going to have a very different policy than the rest of the motels in your chain have you would at least kindly explain this to the guest instead of going about buisness like nothing strange is occuring. Also they way they vary from the Motel 6 norm is having check out time at 11 instead of 12. Of course when a customer is suprised they act like everything is normal, like they don't see what the big deal is when like 1000 Motel 6's do things one certain way and they decide to make some changes for the worse. So if your a faithful Motel 6 customer, steer clear of this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r124234190-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>124234190</t>
+  </si>
+  <si>
+    <t>02/06/2012</t>
+  </si>
+  <si>
+    <t>unsatisfactory</t>
+  </si>
+  <si>
+    <t>had family emergency and conceling reservation was last thing on our minds.when we tried to explain why we did not cancel,they charged us any way.when your faced with your mother having emergency surgery,you don't think about any thing else.to me they are selfish and uncarring people.we made it the second night of our reservation to find a dirty  stained floor that did not look to have been vaccumed in quiet a while.around the tolet was dirty and had someones hair left from who knows when.linens where clean except for one pillow case that looked like a rodant had used the bathroom on it.they do not have coffee pots in the room.its in a bad neighborhood.i will not stay at any motel 6 again.i will try and find a motel that has owners that care about people.MoreShow less</t>
+  </si>
+  <si>
+    <t>had family emergency and conceling reservation was last thing on our minds.when we tried to explain why we did not cancel,they charged us any way.when your faced with your mother having emergency surgery,you don't think about any thing else.to me they are selfish and uncarring people.we made it the second night of our reservation to find a dirty  stained floor that did not look to have been vaccumed in quiet a while.around the tolet was dirty and had someones hair left from who knows when.linens where clean except for one pillow case that looked like a rodant had used the bathroom on it.they do not have coffee pots in the room.its in a bad neighborhood.i will not stay at any motel 6 again.i will try and find a motel that has owners that care about people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r123239306-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>123239306</t>
+  </si>
+  <si>
+    <t>01/17/2012</t>
+  </si>
+  <si>
+    <t>Clean, secure, quiet and pet friendly motel</t>
+  </si>
+  <si>
+    <t>This Motel 6 is clean, quiet,  pet friendly and secure. (There is a large open area in back to walk a dog.)  My room was a double with a microwave and fridge and it was enormous (I got a double for the fridge and microwave)!  Plenty of room for me and my pooch.   The area seems safe but after dark as with any place be cautious.  The area seems to have gone thru some hurricane  damage and it probably  has seen  better times.  (There are abandoned buildings-former motels  and a strip mall that are gone in the 'hood.)   There is handy  new shopping and eats THO;  there is a Winn Dixie, Dollar General, Family Dollar, Walgreens, Burger King, Mcdonald's, Subway, Rally, Waffle HSE  and gas stations in the immediate neighborhood and down the street. It is also close and a convenient drive to the French QTR (near Elysian Fields and ST Bernard exits).  The parking lot was secured by a gate the first night I got there (but never again) which I found odd, but I only had to be let out once and I never had to use my key to open it.  The hallways sometimes smelled odd but no worse than any other budget chain.   I would stay here again.  Especially if I was on a budget and unable to stay directly in the QTR!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>This Motel 6 is clean, quiet,  pet friendly and secure. (There is a large open area in back to walk a dog.)  My room was a double with a microwave and fridge and it was enormous (I got a double for the fridge and microwave)!  Plenty of room for me and my pooch.   The area seems safe but after dark as with any place be cautious.  The area seems to have gone thru some hurricane  damage and it probably  has seen  better times.  (There are abandoned buildings-former motels  and a strip mall that are gone in the 'hood.)   There is handy  new shopping and eats THO;  there is a Winn Dixie, Dollar General, Family Dollar, Walgreens, Burger King, Mcdonald's, Subway, Rally, Waffle HSE  and gas stations in the immediate neighborhood and down the street. It is also close and a convenient drive to the French QTR (near Elysian Fields and ST Bernard exits).  The parking lot was secured by a gate the first night I got there (but never again) which I found odd, but I only had to be let out once and I never had to use my key to open it.  The hallways sometimes smelled odd but no worse than any other budget chain.   I would stay here again.  Especially if I was on a budget and unable to stay directly in the QTR!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r122441230-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>122441230</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel for the price</t>
+  </si>
+  <si>
+    <t>Our stay here was as expected. The room was clean, large, bathroom was nice, check in was pleasant. The location is not the best, but the parking lot is fenced in. For the price, its definitely worth it for how close you are to downtown. The front desk has numbers for taxi service. We were in town for the Sugar Bowl at the Superdome, and stayed here one night. We were able to order Domino's pizza as well and they delivered to the front desk. My husband had no issues going to get it. I would not recommend walking around the property at night, but for a place to lay your head during travels, its well suited. I would stay here again, if I were staying on a budget. Next time, I hope to be able to stay longer and down on Bourbon St. The trick with the showers and hot water are to start your shower water early, let it run for about 15 mins, and then you have a very hot shower. The abandoned building we looked at from our window was interesting, but, just part of the rebuilding from Katrina.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay here was as expected. The room was clean, large, bathroom was nice, check in was pleasant. The location is not the best, but the parking lot is fenced in. For the price, its definitely worth it for how close you are to downtown. The front desk has numbers for taxi service. We were in town for the Sugar Bowl at the Superdome, and stayed here one night. We were able to order Domino's pizza as well and they delivered to the front desk. My husband had no issues going to get it. I would not recommend walking around the property at night, but for a place to lay your head during travels, its well suited. I would stay here again, if I were staying on a budget. Next time, I hope to be able to stay longer and down on Bourbon St. The trick with the showers and hot water are to start your shower water early, let it run for about 15 mins, and then you have a very hot shower. The abandoned building we looked at from our window was interesting, but, just part of the rebuilding from Katrina.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r122422422-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>122422422</t>
+  </si>
+  <si>
+    <t>Large Clean Room! Great Stay!</t>
+  </si>
+  <si>
+    <t>We like to stay in Motel 6s when we travel because the rates are good and we normally have a predictable experience for a good sleep and a nice shower. Some are better than others but this room was acceptionally clean and large for a budget hotel! Initially, there was a strong cleaning agent smell in the room (which is not all bad) but it went away after cranking the A/C up a bit. The room was large, clean, and we had a nice big window facing a grassy area between us and I-10 freeway. We had a good sleep and shower.It would have been nice to have a valet cart, micro-fridge, and iron but that was really a non-issue. We paid about $30.00 more for this Motel 6 than we typically do but it was only a few short minutes away from downtown New Orleans. Also, Kumar (the manager) was very helpful and courteous both over the phone and in person. Don't let the poor area of town deter you. We felt safe even staying out until after 1:00 am New Year's morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>We like to stay in Motel 6s when we travel because the rates are good and we normally have a predictable experience for a good sleep and a nice shower. Some are better than others but this room was acceptionally clean and large for a budget hotel! Initially, there was a strong cleaning agent smell in the room (which is not all bad) but it went away after cranking the A/C up a bit. The room was large, clean, and we had a nice big window facing a grassy area between us and I-10 freeway. We had a good sleep and shower.It would have been nice to have a valet cart, micro-fridge, and iron but that was really a non-issue. We paid about $30.00 more for this Motel 6 than we typically do but it was only a few short minutes away from downtown New Orleans. Also, Kumar (the manager) was very helpful and courteous both over the phone and in person. Don't let the poor area of town deter you. We felt safe even staying out until after 1:00 am New Year's morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r120137731-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>120137731</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>Great stay at this Motel 6!!!</t>
+  </si>
+  <si>
+    <t>So i can start by saying that everyone who is talking smack about this motel and the location are incorrect. Yes, maybe the location of this hotel is not so great but look around, you have downtime New Orleans in less than 10 mins, you have French Quarters, Harrahs and everything so near by! the management was so nice and the rooms were more than enough! 2 queen beds with 4 people and it was still spacious. Trust me, my husband and I dont just stay at any hotel and this one is one that I will for sure keep coming back to when I visit New Orleans!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r119290432-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>119290432</t>
+  </si>
+  <si>
+    <t>10/14/2011</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>First I would like to say our stay was very pleasant, quiet, nice motel, clean, and friendly.
+The location is probably not the nicest, by that I mean the view from the room is of business's, right next door is a Subway, makes it handy for those who want a quick meal, etc.
+I think to that New Orleans probably changed a great deal after Katrina, I can’t say how it was before.  But this Motel6 staff is friendly and efficient, the rooms are clean and spacious, the location is handy to the French Quarters, but beware the traffic is “heavy” and they drive like a “bat out of h—l” on those freeways.
+I researched online before we decided to stay here, read the reviews, the one that stuck out was the lady who stayed here with her dad to celebrate his birthday, he being a retired trucker.  She said they had a pleasant stay.  I then read the other reviews, and then did a balancing act because hubby said let’s give that one a try.  So we did.
+There is gated parking for the night, I saw people walking their dogs in the morning, parking lot filled up at night.  Goes without saying that in an area you don’t know you would not going walking down the streets, besides there isn’t anything to walk to in that area at night.  We felt safe and secure staying there.  
+Down the...First I would like to say our stay was very pleasant, quiet, nice motel, clean, and friendly.The location is probably not the nicest, by that I mean the view from the room is of business's, right next door is a Subway, makes it handy for those who want a quick meal, etc.I think to that New Orleans probably changed a great deal after Katrina, I can’t say how it was before.  But this Motel6 staff is friendly and efficient, the rooms are clean and spacious, the location is handy to the French Quarters, but beware the traffic is “heavy” and they drive like a “bat out of h—l” on those freeways.I researched online before we decided to stay here, read the reviews, the one that stuck out was the lady who stayed here with her dad to celebrate his birthday, he being a retired trucker.  She said they had a pleasant stay.  I then read the other reviews, and then did a balancing act because hubby said let’s give that one a try.  So we did.There is gated parking for the night, I saw people walking their dogs in the morning, parking lot filled up at night.  Goes without saying that in an area you don’t know you would not going walking down the streets, besides there isn’t anything to walk to in that area at night.  We felt safe and secure staying there.  Down the street from the Motel6 is a "Fantastic Soul Food" takeout or eat in (certain hours) The food is down to earth good soul food, prices reasonable, even Stevie Wonder has eaten there.  The staff is very friendly, the FOOD is worth trying, breakfast, lunch or dinner, give it a try!!MoreShow less</t>
+  </si>
+  <si>
+    <t>First I would like to say our stay was very pleasant, quiet, nice motel, clean, and friendly.
+The location is probably not the nicest, by that I mean the view from the room is of business's, right next door is a Subway, makes it handy for those who want a quick meal, etc.
+I think to that New Orleans probably changed a great deal after Katrina, I can’t say how it was before.  But this Motel6 staff is friendly and efficient, the rooms are clean and spacious, the location is handy to the French Quarters, but beware the traffic is “heavy” and they drive like a “bat out of h—l” on those freeways.
+I researched online before we decided to stay here, read the reviews, the one that stuck out was the lady who stayed here with her dad to celebrate his birthday, he being a retired trucker.  She said they had a pleasant stay.  I then read the other reviews, and then did a balancing act because hubby said let’s give that one a try.  So we did.
+There is gated parking for the night, I saw people walking their dogs in the morning, parking lot filled up at night.  Goes without saying that in an area you don’t know you would not going walking down the streets, besides there isn’t anything to walk to in that area at night.  We felt safe and secure staying there.  
+Down the...First I would like to say our stay was very pleasant, quiet, nice motel, clean, and friendly.The location is probably not the nicest, by that I mean the view from the room is of business's, right next door is a Subway, makes it handy for those who want a quick meal, etc.I think to that New Orleans probably changed a great deal after Katrina, I can’t say how it was before.  But this Motel6 staff is friendly and efficient, the rooms are clean and spacious, the location is handy to the French Quarters, but beware the traffic is “heavy” and they drive like a “bat out of h—l” on those freeways.I researched online before we decided to stay here, read the reviews, the one that stuck out was the lady who stayed here with her dad to celebrate his birthday, he being a retired trucker.  She said they had a pleasant stay.  I then read the other reviews, and then did a balancing act because hubby said let’s give that one a try.  So we did.There is gated parking for the night, I saw people walking their dogs in the morning, parking lot filled up at night.  Goes without saying that in an area you don’t know you would not going walking down the streets, besides there isn’t anything to walk to in that area at night.  We felt safe and secure staying there.  Down the street from the Motel6 is a "Fantastic Soul Food" takeout or eat in (certain hours) The food is down to earth good soul food, prices reasonable, even Stevie Wonder has eaten there.  The staff is very friendly, the FOOD is worth trying, breakfast, lunch or dinner, give it a try!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r117949298-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>117949298</t>
+  </si>
+  <si>
+    <t>09/11/2011</t>
+  </si>
+  <si>
+    <t>You pay for what you get</t>
+  </si>
+  <si>
+    <t>I stayed here because of the CHEAP price and I had my car, so I didn't mind driving back into town to do everything I wanted.  My room had double queen beds and it was HUGE, but the bathroom was average, so it seemed like wasted space.  The sheets on both beds, the bathroom towels and the carpet were worn.  The bathroom itself  was clean though.  My room smelled clean enough until later into the night, the guests next door to me decided they wanted to smoke in their room.  I was too tired to even complain about the nasty smoke smell wafting into my room.  Also, the constant doors slamming was very annoying.All in all this place had the basics, but it just seemed worn out.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I stayed here because of the CHEAP price and I had my car, so I didn't mind driving back into town to do everything I wanted.  My room had double queen beds and it was HUGE, but the bathroom was average, so it seemed like wasted space.  The sheets on both beds, the bathroom towels and the carpet were worn.  The bathroom itself  was clean though.  My room smelled clean enough until later into the night, the guests next door to me decided they wanted to smoke in their room.  I was too tired to even complain about the nasty smoke smell wafting into my room.  Also, the constant doors slamming was very annoying.All in all this place had the basics, but it just seemed worn out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r116877958-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>116877958</t>
+  </si>
+  <si>
+    <t>08/17/2011</t>
+  </si>
+  <si>
+    <t>It was ok, you "get what you pay for......"</t>
+  </si>
+  <si>
+    <t>ok first off i wasnt planning on paying much for a hotel so i know iw aasnt going to get some great stuff. The hotel itself is really nice. not a bad price. close to downtown new orleans. there was a problem though because they didnt seem to know what they were doing. not only were they extremely rude AFTER i had checked in. My wife and i had both checked in at 10:00 pm on a thursday. She had the credit card so we put it under her name, but both were going to be staying there.  They  got both of our ID's and paid for two people. Got two keys and everything. We put our stuff up then went for a night on the town..got back at about 3am the gate was locked. had to go to the office to get them to open the gate..well the guy then to tell me i wasnt on the list for any room there, adn he wasnt going to let me in. told me i was drunk and didnt know what i was talking about. Luckily my wife wasnt to far away adn i found her and then they finally let me in. She then told them to make sure i was added to the room because they were supposed to have done that earlier...he then told us that he couldnt do that we will have to do that some other...ok first off i wasnt planning on paying much for a hotel so i know iw aasnt going to get some great stuff. The hotel itself is really nice. not a bad price. close to downtown new orleans. there was a problem though because they didnt seem to know what they were doing. not only were they extremely rude AFTER i had checked in. My wife and i had both checked in at 10:00 pm on a thursday. She had the credit card so we put it under her name, but both were going to be staying there.  They  got both of our ID's and paid for two people. Got two keys and everything. We put our stuff up then went for a night on the town..got back at about 3am the gate was locked. had to go to the office to get them to open the gate..well the guy then to tell me i wasnt on the list for any room there, adn he wasnt going to let me in. told me i was drunk and didnt know what i was talking about. Luckily my wife wasnt to far away adn i found her and then they finally let me in. She then told them to make sure i was added to the room because they were supposed to have done that earlier...he then told us that he couldnt do that we will have to do that some other time. what a crock. anyways the neighborhood is full of drug dealers and prostitues. anytime i had a question for them they were EXTREMELY RUDE.MoreShow less</t>
+  </si>
+  <si>
+    <t>ok first off i wasnt planning on paying much for a hotel so i know iw aasnt going to get some great stuff. The hotel itself is really nice. not a bad price. close to downtown new orleans. there was a problem though because they didnt seem to know what they were doing. not only were they extremely rude AFTER i had checked in. My wife and i had both checked in at 10:00 pm on a thursday. She had the credit card so we put it under her name, but both were going to be staying there.  They  got both of our ID's and paid for two people. Got two keys and everything. We put our stuff up then went for a night on the town..got back at about 3am the gate was locked. had to go to the office to get them to open the gate..well the guy then to tell me i wasnt on the list for any room there, adn he wasnt going to let me in. told me i was drunk and didnt know what i was talking about. Luckily my wife wasnt to far away adn i found her and then they finally let me in. She then told them to make sure i was added to the room because they were supposed to have done that earlier...he then told us that he couldnt do that we will have to do that some other...ok first off i wasnt planning on paying much for a hotel so i know iw aasnt going to get some great stuff. The hotel itself is really nice. not a bad price. close to downtown new orleans. there was a problem though because they didnt seem to know what they were doing. not only were they extremely rude AFTER i had checked in. My wife and i had both checked in at 10:00 pm on a thursday. She had the credit card so we put it under her name, but both were going to be staying there.  They  got both of our ID's and paid for two people. Got two keys and everything. We put our stuff up then went for a night on the town..got back at about 3am the gate was locked. had to go to the office to get them to open the gate..well the guy then to tell me i wasnt on the list for any room there, adn he wasnt going to let me in. told me i was drunk and didnt know what i was talking about. Luckily my wife wasnt to far away adn i found her and then they finally let me in. She then told them to make sure i was added to the room because they were supposed to have done that earlier...he then told us that he couldnt do that we will have to do that some other time. what a crock. anyways the neighborhood is full of drug dealers and prostitues. anytime i had a question for them they were EXTREMELY RUDE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r115128322-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>115128322</t>
+  </si>
+  <si>
+    <t>07/07/2011</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised at location and  room size!</t>
+  </si>
+  <si>
+    <t>After staying at the Motel 6 for the 4th of July,  I was pleasantly surprised at the location and the size of the rooms!  I have been to New Orleans several times and I think this was the largest room I have stayed in to date!  I was celebrating my dad's birthday! He actually suggested staying at a Motel 6. He is also a retired trucker!  I am glad I listened. 
+    As far as location, it was very convenient to the French quarter. If you are driving, the French quarter is less than 10 minutes away.  The exit is next to the motel. You can also drive to the quarter  on the local road too!  I read the previous reviews about the area. I can see how at night  you should be careful, but I did not have any problems.  Yes, they do have a gate which made me feel  MORE secure instead of less secure!  There were no people hanging around or begging of the sort. Dollar stores and gas stations are across the street.  I came back late at night and still felt safe.
+    The service was to be as expected for a Motel 6. It was not super fantastic, but it was not even close to horrible either. The lady that cleaned the room was very nice and always asked if my father and I needed anything. There is coffee in the lobby every morning! The front...After staying at the Motel 6 for the 4th of July,  I was pleasantly surprised at the location and the size of the rooms!  I have been to New Orleans several times and I think this was the largest room I have stayed in to date!  I was celebrating my dad's birthday! He actually suggested staying at a Motel 6. He is also a retired trucker!  I am glad I listened.     As far as location, it was very convenient to the French quarter. If you are driving, the French quarter is less than 10 minutes away.  The exit is next to the motel. You can also drive to the quarter  on the local road too!  I read the previous reviews about the area. I can see how at night  you should be careful, but I did not have any problems.  Yes, they do have a gate which made me feel  MORE secure instead of less secure!  There were no people hanging around or begging of the sort. Dollar stores and gas stations are across the street.  I came back late at night and still felt safe.    The service was to be as expected for a Motel 6. It was not super fantastic, but it was not even close to horrible either. The lady that cleaned the room was very nice and always asked if my father and I needed anything. There is coffee in the lobby every morning! The front desk answered my questions in a courteous manner. I would rate the service as good!       Please take note of the room size. My father and I stayed in a room with two queen beds. I believe there was room for another queen bed.  The room was clean! The shower pressure was adequate.  There were plenty of towels. Since our room was on the freeway side there was some noise, but it was not enough to keep you from sleeping at night.      If you are looking for a very fancy accommodation  keep the price in mind !  For 4th of July  weekend/Essence festival all the downtown hotels were very expensive. I have stayed downtown before and always had to pay so much more just to park. Parking was free and always available even for the  busy holiday weekend! I would like to thank the staff at Motel 6  for helping make my father's birthday celebration in New Orleans a great experience!   I will stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>After staying at the Motel 6 for the 4th of July,  I was pleasantly surprised at the location and the size of the rooms!  I have been to New Orleans several times and I think this was the largest room I have stayed in to date!  I was celebrating my dad's birthday! He actually suggested staying at a Motel 6. He is also a retired trucker!  I am glad I listened. 
+    As far as location, it was very convenient to the French quarter. If you are driving, the French quarter is less than 10 minutes away.  The exit is next to the motel. You can also drive to the quarter  on the local road too!  I read the previous reviews about the area. I can see how at night  you should be careful, but I did not have any problems.  Yes, they do have a gate which made me feel  MORE secure instead of less secure!  There were no people hanging around or begging of the sort. Dollar stores and gas stations are across the street.  I came back late at night and still felt safe.
+    The service was to be as expected for a Motel 6. It was not super fantastic, but it was not even close to horrible either. The lady that cleaned the room was very nice and always asked if my father and I needed anything. There is coffee in the lobby every morning! The front...After staying at the Motel 6 for the 4th of July,  I was pleasantly surprised at the location and the size of the rooms!  I have been to New Orleans several times and I think this was the largest room I have stayed in to date!  I was celebrating my dad's birthday! He actually suggested staying at a Motel 6. He is also a retired trucker!  I am glad I listened.     As far as location, it was very convenient to the French quarter. If you are driving, the French quarter is less than 10 minutes away.  The exit is next to the motel. You can also drive to the quarter  on the local road too!  I read the previous reviews about the area. I can see how at night  you should be careful, but I did not have any problems.  Yes, they do have a gate which made me feel  MORE secure instead of less secure!  There were no people hanging around or begging of the sort. Dollar stores and gas stations are across the street.  I came back late at night and still felt safe.    The service was to be as expected for a Motel 6. It was not super fantastic, but it was not even close to horrible either. The lady that cleaned the room was very nice and always asked if my father and I needed anything. There is coffee in the lobby every morning! The front desk answered my questions in a courteous manner. I would rate the service as good!       Please take note of the room size. My father and I stayed in a room with two queen beds. I believe there was room for another queen bed.  The room was clean! The shower pressure was adequate.  There were plenty of towels. Since our room was on the freeway side there was some noise, but it was not enough to keep you from sleeping at night.      If you are looking for a very fancy accommodation  keep the price in mind !  For 4th of July  weekend/Essence festival all the downtown hotels were very expensive. I have stayed downtown before and always had to pay so much more just to park. Parking was free and always available even for the  busy holiday weekend! I would like to thank the staff at Motel 6  for helping make my father's birthday celebration in New Orleans a great experience!   I will stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r114970384-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>114970384</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>Bad area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have an extra $100 for peace of mind, stay somewhere nicer in the city. There is a gate around the parking area, bulletproof glass at the check-in, CrimeStoppers signs at the entrance, and a motorcycle shop across the street. Those are just the problems with the area. Usually you can count on Motel 6 to be pretty well-kept. Not here. I'm sure if the corporate bosses saw what this management is doing with the Motel 6 name, they would not be happy. It almost feels like the building is about to fall down. If you (and your family) want a care-free stay, choose another place. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r105270546-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>105270546</t>
+  </si>
+  <si>
+    <t>04/24/2011</t>
+  </si>
+  <si>
+    <t>Ideal for a budget stay in New Orleans</t>
+  </si>
+  <si>
+    <t>This hotel is right off the freeway and only 3 1/2 mile from the French Quarter, making it an ideal base for a trip to New Orleans.Our room was very clean, apart from a large makeup stain on one of the duvets, which I don't think is acceptable when I'm paying for a clean room. The bathroom was spotless and water was always hot.Being right next to the freeway means the rooms are fairly noisy, but the noise is not really a problem, unless you struggle to get to sleep with the constant drone of traffic.The rooms have large televisions, with an abundance of channels. WiFi Internet is free, but the signal is terrible, you really need to sit in the lobby if you want any chance of an uninterrupted connection.The staff were very friendly and helpful. Overall it's a good value place to stay in New Orleans and I would definitely use it againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>This hotel is right off the freeway and only 3 1/2 mile from the French Quarter, making it an ideal base for a trip to New Orleans.Our room was very clean, apart from a large makeup stain on one of the duvets, which I don't think is acceptable when I'm paying for a clean room. The bathroom was spotless and water was always hot.Being right next to the freeway means the rooms are fairly noisy, but the noise is not really a problem, unless you struggle to get to sleep with the constant drone of traffic.The rooms have large televisions, with an abundance of channels. WiFi Internet is free, but the signal is terrible, you really need to sit in the lobby if you want any chance of an uninterrupted connection.The staff were very friendly and helpful. Overall it's a good value place to stay in New Orleans and I would definitely use it againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r97365559-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>97365559</t>
+  </si>
+  <si>
+    <t>02/20/2011</t>
+  </si>
+  <si>
+    <t>Nice rooms!</t>
+  </si>
+  <si>
+    <t>The room I was in has all new furniture...even the bathtub is so new, it still has the sticker on it! The only thing I can say that's not positive, they do not provide a little bottle of shampoo. I had to go across the street to the Walgreens and buy some.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r82678592-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>82678592</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>Pet Friendly and People Friendly</t>
+  </si>
+  <si>
+    <t>We just finished a trip of 8,200 miles around the US with family of two adults and two dogs, one dog weighs in at 90 lbs and the other 18 lbs.  We had no problems with finding any pet friendly hotels the entire trip and we didn't have one reservation in advance.  One surprise was the last two hotels were Motel 6's.  They were new and very, very clean, new in every detail.  The front desk staff was very accommodating and pets were being walked down the halls, and the parking lots.  No odors, the rooms were surprising large with modern updates.  One day, I will write about traveling with our dogs,  We had so much fun and we did all of this in a Prius.  We came home and bought a RoadTek that weekend, we can't wait for our next adventure!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We just finished a trip of 8,200 miles around the US with family of two adults and two dogs, one dog weighs in at 90 lbs and the other 18 lbs.  We had no problems with finding any pet friendly hotels the entire trip and we didn't have one reservation in advance.  One surprise was the last two hotels were Motel 6's.  They were new and very, very clean, new in every detail.  The front desk staff was very accommodating and pets were being walked down the halls, and the parking lots.  No odors, the rooms were surprising large with modern updates.  One day, I will write about traveling with our dogs,  We had so much fun and we did all of this in a Prius.  We came home and bought a RoadTek that weekend, we can't wait for our next adventure!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r72411997-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>72411997</t>
+  </si>
+  <si>
+    <t>07/26/2010</t>
+  </si>
+  <si>
+    <t>Not Safe!</t>
+  </si>
+  <si>
+    <t>I am not sure who wrote the other two reviews, maybe the owers. The room was nasty the tub had orange streaks all over it. the sink had not been cleaned in who knows how long. The bed was hard as a rock. I know this is a very cheap hotel but we have stayed in motel 6's before and this was by far the worst. The loction is very bad to say the least. It was not safe to walk to your car past ten. They also had hookers in the parking lot. We drove to get something to eat at rallys down the road so we could hurry to the room and lock ourself in while in the drive through at rallys there were bulldogs roaming aroung and people sitting everywhere in lawn chairs at the burger king parking lot. All I can say is I am glad we made it out alive.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Motel6-4527, General Manager at Motel 6 New Orleans - near downtown, responded to this reviewResponded February 2, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2011</t>
+  </si>
+  <si>
+    <t>I am not sure who wrote the other two reviews, maybe the owers. The room was nasty the tub had orange streaks all over it. the sink had not been cleaned in who knows how long. The bed was hard as a rock. I know this is a very cheap hotel but we have stayed in motel 6's before and this was by far the worst. The loction is very bad to say the least. It was not safe to walk to your car past ten. They also had hookers in the parking lot. We drove to get something to eat at rallys down the road so we could hurry to the room and lock ourself in while in the drive through at rallys there were bulldogs roaming aroung and people sitting everywhere in lawn chairs at the burger king parking lot. All I can say is I am glad we made it out alive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r58594987-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>58594987</t>
+  </si>
+  <si>
+    <t>03/14/2010</t>
+  </si>
+  <si>
+    <t>you get what you pay for</t>
+  </si>
+  <si>
+    <t>The first thing we noticed when walking into the room was that it was pretty spacious. Also, the "king" sized bed was 2 twins pushed together. Not a big deal, as the bed was fairly comfortable. The bad thing about this hotel was that it seemed to be minimally cleaned. There was some pink goo on the bathroom counter, pubes in the bathroom floor, the carpet seemed to be hardly vacuumed, and there were what I assumed to be make-up stains on the linens and dried snot on one of the pillow cases. Thankfully there were 4 pillows on the bed. There was no tv remote when we got there... and our room was on the side of the motel adjacent to what seemed to be an abandoned hotel. 
+We stayed 3 nights and we got no cleaning or clean linens, and the towels could hardly be considered towels. The hallway smelled a bit like pot and there was a stick of burned incense on the bedside lamp. I tried not to expect too much from such a cheap place, but I would have liked it to be cleaner. Other than those things.. the shower was ok with good water pressure, the building wasn't too old looking and fairly well-lit and even though the motel wasn't in the nicest part of town I didn't really feel like I was in danger. The staff wasn't unpleasant and we received a remote...The first thing we noticed when walking into the room was that it was pretty spacious. Also, the "king" sized bed was 2 twins pushed together. Not a big deal, as the bed was fairly comfortable. The bad thing about this hotel was that it seemed to be minimally cleaned. There was some pink goo on the bathroom counter, pubes in the bathroom floor, the carpet seemed to be hardly vacuumed, and there were what I assumed to be make-up stains on the linens and dried snot on one of the pillow cases. Thankfully there were 4 pillows on the bed. There was no tv remote when we got there... and our room was on the side of the motel adjacent to what seemed to be an abandoned hotel. We stayed 3 nights and we got no cleaning or clean linens, and the towels could hardly be considered towels. The hallway smelled a bit like pot and there was a stick of burned incense on the bedside lamp. I tried not to expect too much from such a cheap place, but I would have liked it to be cleaner. Other than those things.. the shower was ok with good water pressure, the building wasn't too old looking and fairly well-lit and even though the motel wasn't in the nicest part of town I didn't really feel like I was in danger. The staff wasn't unpleasant and we received a remote without difficulty at the front desk. Also, the high-speed internet worked well.The motel is only a few minute drive down the interstate from the french quarter, but like I said it... it wasn't in a very nice area of town. I would have definitely preferred something closer to the french quarter had everything not been booked up. But... if you aren't a stickler for clean and you're on a budget, it's not the worst place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>The first thing we noticed when walking into the room was that it was pretty spacious. Also, the "king" sized bed was 2 twins pushed together. Not a big deal, as the bed was fairly comfortable. The bad thing about this hotel was that it seemed to be minimally cleaned. There was some pink goo on the bathroom counter, pubes in the bathroom floor, the carpet seemed to be hardly vacuumed, and there were what I assumed to be make-up stains on the linens and dried snot on one of the pillow cases. Thankfully there were 4 pillows on the bed. There was no tv remote when we got there... and our room was on the side of the motel adjacent to what seemed to be an abandoned hotel. 
+We stayed 3 nights and we got no cleaning or clean linens, and the towels could hardly be considered towels. The hallway smelled a bit like pot and there was a stick of burned incense on the bedside lamp. I tried not to expect too much from such a cheap place, but I would have liked it to be cleaner. Other than those things.. the shower was ok with good water pressure, the building wasn't too old looking and fairly well-lit and even though the motel wasn't in the nicest part of town I didn't really feel like I was in danger. The staff wasn't unpleasant and we received a remote...The first thing we noticed when walking into the room was that it was pretty spacious. Also, the "king" sized bed was 2 twins pushed together. Not a big deal, as the bed was fairly comfortable. The bad thing about this hotel was that it seemed to be minimally cleaned. There was some pink goo on the bathroom counter, pubes in the bathroom floor, the carpet seemed to be hardly vacuumed, and there were what I assumed to be make-up stains on the linens and dried snot on one of the pillow cases. Thankfully there were 4 pillows on the bed. There was no tv remote when we got there... and our room was on the side of the motel adjacent to what seemed to be an abandoned hotel. We stayed 3 nights and we got no cleaning or clean linens, and the towels could hardly be considered towels. The hallway smelled a bit like pot and there was a stick of burned incense on the bedside lamp. I tried not to expect too much from such a cheap place, but I would have liked it to be cleaner. Other than those things.. the shower was ok with good water pressure, the building wasn't too old looking and fairly well-lit and even though the motel wasn't in the nicest part of town I didn't really feel like I was in danger. The staff wasn't unpleasant and we received a remote without difficulty at the front desk. Also, the high-speed internet worked well.The motel is only a few minute drive down the interstate from the french quarter, but like I said it... it wasn't in a very nice area of town. I would have definitely preferred something closer to the french quarter had everything not been booked up. But... if you aren't a stickler for clean and you're on a budget, it's not the worst place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d223123-r56530015-Motel_6_New_Orleans_near_downtown-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>56530015</t>
+  </si>
+  <si>
+    <t>02/19/2010</t>
+  </si>
+  <si>
+    <t>Made the right choice!</t>
+  </si>
+  <si>
+    <t>We were a little hesitant before we got to the room because it was so inexpensive, but was greatly impressed by the service and clean rooms.  Not only were they clean smelling but the bedding was fresh and clean as well.  We will definetly stay here again and recommend it to others as well.  Thanks to all the staff for making our stay pleasant!</t>
+  </si>
+  <si>
+    <t>February 2010</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +2554,6564 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>69</v>
+      </c>
+      <c r="X6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>157</v>
+      </c>
+      <c r="X19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>157</v>
+      </c>
+      <c r="X20" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>188</v>
+      </c>
+      <c r="X24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O25" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>197</v>
+      </c>
+      <c r="X25" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>224</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>237</v>
+      </c>
+      <c r="O31" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
+        <v>242</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>254</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>255</v>
+      </c>
+      <c r="J35" t="s">
+        <v>256</v>
+      </c>
+      <c r="K35" t="s">
+        <v>257</v>
+      </c>
+      <c r="L35" t="s">
+        <v>258</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>261</v>
+      </c>
+      <c r="J36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" t="s">
+        <v>264</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>265</v>
+      </c>
+      <c r="O36" t="s">
+        <v>224</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>268</v>
+      </c>
+      <c r="L37" t="s">
+        <v>269</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>224</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>271</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>272</v>
+      </c>
+      <c r="J38" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>278</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>279</v>
+      </c>
+      <c r="J39" t="s">
+        <v>280</v>
+      </c>
+      <c r="K39" t="s">
+        <v>281</v>
+      </c>
+      <c r="L39" t="s">
+        <v>282</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>283</v>
+      </c>
+      <c r="O39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>290</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>292</v>
+      </c>
+      <c r="J41" t="s">
+        <v>293</v>
+      </c>
+      <c r="K41" t="s">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s">
+        <v>295</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>296</v>
+      </c>
+      <c r="O41" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>298</v>
+      </c>
+      <c r="J42" t="s">
+        <v>299</v>
+      </c>
+      <c r="K42" t="s">
+        <v>300</v>
+      </c>
+      <c r="L42" t="s">
+        <v>301</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>302</v>
+      </c>
+      <c r="O42" t="s">
+        <v>110</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" t="s">
+        <v>306</v>
+      </c>
+      <c r="L43" t="s">
+        <v>307</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>237</v>
+      </c>
+      <c r="O43" t="s">
+        <v>100</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>308</v>
+      </c>
+      <c r="X43" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>312</v>
+      </c>
+      <c r="J44" t="s">
+        <v>313</v>
+      </c>
+      <c r="K44" t="s">
+        <v>314</v>
+      </c>
+      <c r="L44" t="s">
+        <v>315</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>316</v>
+      </c>
+      <c r="O44" t="s">
+        <v>100</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>319</v>
+      </c>
+      <c r="K45" t="s">
+        <v>320</v>
+      </c>
+      <c r="L45" t="s">
+        <v>321</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>322</v>
+      </c>
+      <c r="O45" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>324</v>
+      </c>
+      <c r="J46" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s">
+        <v>327</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>328</v>
+      </c>
+      <c r="O46" t="s">
+        <v>224</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>329</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>330</v>
+      </c>
+      <c r="J47" t="s">
+        <v>331</v>
+      </c>
+      <c r="K47" t="s">
+        <v>332</v>
+      </c>
+      <c r="L47" t="s">
+        <v>333</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>334</v>
+      </c>
+      <c r="O47" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>337</v>
+      </c>
+      <c r="J48" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" t="s">
+        <v>339</v>
+      </c>
+      <c r="L48" t="s">
+        <v>340</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>341</v>
+      </c>
+      <c r="O48" t="s">
+        <v>44</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>343</v>
+      </c>
+      <c r="J49" t="s">
+        <v>344</v>
+      </c>
+      <c r="K49" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" t="s">
+        <v>346</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>341</v>
+      </c>
+      <c r="O49" t="s">
+        <v>110</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>353</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>354</v>
+      </c>
+      <c r="J51" t="s">
+        <v>355</v>
+      </c>
+      <c r="K51" t="s">
+        <v>241</v>
+      </c>
+      <c r="L51" t="s">
+        <v>356</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>334</v>
+      </c>
+      <c r="O51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>357</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>358</v>
+      </c>
+      <c r="J52" t="s">
+        <v>359</v>
+      </c>
+      <c r="K52" t="s">
+        <v>360</v>
+      </c>
+      <c r="L52" t="s">
+        <v>361</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>316</v>
+      </c>
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>363</v>
+      </c>
+      <c r="J53" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" t="s">
+        <v>365</v>
+      </c>
+      <c r="L53" t="s">
+        <v>366</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>367</v>
+      </c>
+      <c r="X53" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>371</v>
+      </c>
+      <c r="J54" t="s">
+        <v>372</v>
+      </c>
+      <c r="K54" t="s">
+        <v>373</v>
+      </c>
+      <c r="L54" t="s">
+        <v>374</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>334</v>
+      </c>
+      <c r="O54" t="s">
+        <v>100</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>375</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>376</v>
+      </c>
+      <c r="J55" t="s">
+        <v>377</v>
+      </c>
+      <c r="K55" t="s">
+        <v>378</v>
+      </c>
+      <c r="L55" t="s">
+        <v>379</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>380</v>
+      </c>
+      <c r="O55" t="s">
+        <v>224</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>382</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>383</v>
+      </c>
+      <c r="J56" t="s">
+        <v>384</v>
+      </c>
+      <c r="K56" t="s">
+        <v>385</v>
+      </c>
+      <c r="L56" t="s">
+        <v>386</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>380</v>
+      </c>
+      <c r="O56" t="s">
+        <v>224</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>388</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>389</v>
+      </c>
+      <c r="J57" t="s">
+        <v>390</v>
+      </c>
+      <c r="K57" t="s">
+        <v>391</v>
+      </c>
+      <c r="L57" t="s">
+        <v>392</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>380</v>
+      </c>
+      <c r="O57" t="s">
+        <v>224</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>394</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>395</v>
+      </c>
+      <c r="J58" t="s">
+        <v>396</v>
+      </c>
+      <c r="K58" t="s">
+        <v>397</v>
+      </c>
+      <c r="L58" t="s">
+        <v>398</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>399</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" t="s">
+        <v>396</v>
+      </c>
+      <c r="K59" t="s">
+        <v>401</v>
+      </c>
+      <c r="L59" t="s">
+        <v>402</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>403</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" t="s">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s">
+        <v>409</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>410</v>
+      </c>
+      <c r="O60" t="s">
+        <v>224</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>412</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>413</v>
+      </c>
+      <c r="J61" t="s">
+        <v>414</v>
+      </c>
+      <c r="K61" t="s">
+        <v>415</v>
+      </c>
+      <c r="L61" t="s">
+        <v>416</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>410</v>
+      </c>
+      <c r="O61" t="s">
+        <v>110</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>418</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>419</v>
+      </c>
+      <c r="J62" t="s">
+        <v>414</v>
+      </c>
+      <c r="K62" t="s">
+        <v>420</v>
+      </c>
+      <c r="L62" t="s">
+        <v>421</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>422</v>
+      </c>
+      <c r="O62" t="s">
+        <v>100</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>423</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>424</v>
+      </c>
+      <c r="J63" t="s">
+        <v>425</v>
+      </c>
+      <c r="K63" t="s">
+        <v>426</v>
+      </c>
+      <c r="L63" t="s">
+        <v>427</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>422</v>
+      </c>
+      <c r="O63" t="s">
+        <v>224</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>429</v>
+      </c>
+      <c r="J64" t="s">
+        <v>430</v>
+      </c>
+      <c r="K64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L64" t="s">
+        <v>432</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>410</v>
+      </c>
+      <c r="O64" t="s">
+        <v>44</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>433</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>434</v>
+      </c>
+      <c r="J65" t="s">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s">
+        <v>436</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>410</v>
+      </c>
+      <c r="O65" t="s">
+        <v>224</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>438</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>439</v>
+      </c>
+      <c r="J66" t="s">
+        <v>440</v>
+      </c>
+      <c r="K66" t="s">
+        <v>441</v>
+      </c>
+      <c r="L66" t="s">
+        <v>442</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>443</v>
+      </c>
+      <c r="O66" t="s">
+        <v>44</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>446</v>
+      </c>
+      <c r="J67" t="s">
+        <v>447</v>
+      </c>
+      <c r="K67" t="s">
+        <v>448</v>
+      </c>
+      <c r="L67" t="s">
+        <v>449</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>443</v>
+      </c>
+      <c r="O67" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>450</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>451</v>
+      </c>
+      <c r="J68" t="s">
+        <v>452</v>
+      </c>
+      <c r="K68" t="s">
+        <v>453</v>
+      </c>
+      <c r="L68" t="s">
+        <v>454</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>455</v>
+      </c>
+      <c r="O68" t="s">
+        <v>44</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>456</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J69" t="s">
+        <v>458</v>
+      </c>
+      <c r="K69" t="s">
+        <v>459</v>
+      </c>
+      <c r="L69" t="s">
+        <v>460</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>455</v>
+      </c>
+      <c r="O69" t="s">
+        <v>110</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>461</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>462</v>
+      </c>
+      <c r="J70" t="s">
+        <v>463</v>
+      </c>
+      <c r="K70" t="s">
+        <v>464</v>
+      </c>
+      <c r="L70" t="s">
+        <v>465</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>466</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>467</v>
+      </c>
+      <c r="J71" t="s">
+        <v>468</v>
+      </c>
+      <c r="K71" t="s">
+        <v>469</v>
+      </c>
+      <c r="L71" t="s">
+        <v>470</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>471</v>
+      </c>
+      <c r="O71" t="s">
+        <v>100</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>472</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>473</v>
+      </c>
+      <c r="J72" t="s">
+        <v>474</v>
+      </c>
+      <c r="K72" t="s">
+        <v>475</v>
+      </c>
+      <c r="L72" t="s">
+        <v>476</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>477</v>
+      </c>
+      <c r="O72" t="s">
+        <v>224</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>478</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>479</v>
+      </c>
+      <c r="J73" t="s">
+        <v>480</v>
+      </c>
+      <c r="K73" t="s">
+        <v>481</v>
+      </c>
+      <c r="L73" t="s">
+        <v>482</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>477</v>
+      </c>
+      <c r="O73" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>483</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>484</v>
+      </c>
+      <c r="J74" t="s">
+        <v>480</v>
+      </c>
+      <c r="K74" t="s">
+        <v>485</v>
+      </c>
+      <c r="L74" t="s">
+        <v>486</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>477</v>
+      </c>
+      <c r="O74" t="s">
+        <v>100</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>487</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>488</v>
+      </c>
+      <c r="J75" t="s">
+        <v>489</v>
+      </c>
+      <c r="K75" t="s">
+        <v>490</v>
+      </c>
+      <c r="L75" t="s">
+        <v>491</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>492</v>
+      </c>
+      <c r="O75" t="s">
+        <v>34</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>493</v>
+      </c>
+      <c r="X75" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>496</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>497</v>
+      </c>
+      <c r="J76" t="s">
+        <v>498</v>
+      </c>
+      <c r="K76" t="s">
+        <v>499</v>
+      </c>
+      <c r="L76" t="s">
+        <v>500</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>501</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>502</v>
+      </c>
+      <c r="J77" t="s">
+        <v>503</v>
+      </c>
+      <c r="K77" t="s">
+        <v>504</v>
+      </c>
+      <c r="L77" t="s">
+        <v>505</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>506</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>507</v>
+      </c>
+      <c r="J78" t="s">
+        <v>508</v>
+      </c>
+      <c r="K78" t="s">
+        <v>509</v>
+      </c>
+      <c r="L78" t="s">
+        <v>510</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>511</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>512</v>
+      </c>
+      <c r="J79" t="s">
+        <v>513</v>
+      </c>
+      <c r="K79" t="s">
+        <v>514</v>
+      </c>
+      <c r="L79" t="s">
+        <v>515</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>516</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>517</v>
+      </c>
+      <c r="J80" t="s">
+        <v>518</v>
+      </c>
+      <c r="K80" t="s">
+        <v>519</v>
+      </c>
+      <c r="L80" t="s">
+        <v>520</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>521</v>
+      </c>
+      <c r="O80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>522</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>523</v>
+      </c>
+      <c r="J81" t="s">
+        <v>524</v>
+      </c>
+      <c r="K81" t="s">
+        <v>525</v>
+      </c>
+      <c r="L81" t="s">
+        <v>526</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>527</v>
+      </c>
+      <c r="O81" t="s">
+        <v>100</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>528</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>529</v>
+      </c>
+      <c r="J82" t="s">
+        <v>530</v>
+      </c>
+      <c r="K82" t="s">
+        <v>531</v>
+      </c>
+      <c r="L82" t="s">
+        <v>532</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>527</v>
+      </c>
+      <c r="O82" t="s">
+        <v>34</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>534</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>535</v>
+      </c>
+      <c r="J83" t="s">
+        <v>536</v>
+      </c>
+      <c r="K83" t="s">
+        <v>537</v>
+      </c>
+      <c r="L83" t="s">
+        <v>538</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>539</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>540</v>
+      </c>
+      <c r="J84" t="s">
+        <v>541</v>
+      </c>
+      <c r="K84" t="s">
+        <v>542</v>
+      </c>
+      <c r="L84" t="s">
+        <v>543</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>544</v>
+      </c>
+      <c r="O84" t="s">
+        <v>44</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>545</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>546</v>
+      </c>
+      <c r="J85" t="s">
+        <v>547</v>
+      </c>
+      <c r="K85" t="s">
+        <v>548</v>
+      </c>
+      <c r="L85" t="s">
+        <v>549</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>550</v>
+      </c>
+      <c r="O85" t="s">
+        <v>100</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>552</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>553</v>
+      </c>
+      <c r="J86" t="s">
+        <v>554</v>
+      </c>
+      <c r="K86" t="s">
+        <v>555</v>
+      </c>
+      <c r="L86" t="s">
+        <v>556</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>550</v>
+      </c>
+      <c r="O86" t="s">
+        <v>44</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>558</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>559</v>
+      </c>
+      <c r="J87" t="s">
+        <v>560</v>
+      </c>
+      <c r="K87" t="s">
+        <v>561</v>
+      </c>
+      <c r="L87" t="s">
+        <v>562</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>563</v>
+      </c>
+      <c r="O87" t="s">
+        <v>44</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>564</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>565</v>
+      </c>
+      <c r="J88" t="s">
+        <v>566</v>
+      </c>
+      <c r="K88" t="s">
+        <v>567</v>
+      </c>
+      <c r="L88" t="s">
+        <v>568</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>569</v>
+      </c>
+      <c r="O88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>570</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>571</v>
+      </c>
+      <c r="J89" t="s">
+        <v>572</v>
+      </c>
+      <c r="K89" t="s">
+        <v>573</v>
+      </c>
+      <c r="L89" t="s">
+        <v>574</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>575</v>
+      </c>
+      <c r="O89" t="s">
+        <v>224</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>577</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>578</v>
+      </c>
+      <c r="J90" t="s">
+        <v>579</v>
+      </c>
+      <c r="K90" t="s">
+        <v>580</v>
+      </c>
+      <c r="L90" t="s">
+        <v>581</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>569</v>
+      </c>
+      <c r="O90" t="s">
+        <v>224</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>583</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>584</v>
+      </c>
+      <c r="J91" t="s">
+        <v>585</v>
+      </c>
+      <c r="K91" t="s">
+        <v>586</v>
+      </c>
+      <c r="L91" t="s">
+        <v>587</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>588</v>
+      </c>
+      <c r="O91" t="s">
+        <v>110</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>590</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>591</v>
+      </c>
+      <c r="J92" t="s">
+        <v>592</v>
+      </c>
+      <c r="K92" t="s">
+        <v>593</v>
+      </c>
+      <c r="L92" t="s">
+        <v>594</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>588</v>
+      </c>
+      <c r="O92" t="s">
+        <v>44</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>596</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>597</v>
+      </c>
+      <c r="J93" t="s">
+        <v>592</v>
+      </c>
+      <c r="K93" t="s">
+        <v>598</v>
+      </c>
+      <c r="L93" t="s">
+        <v>599</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>600</v>
+      </c>
+      <c r="O93" t="s">
+        <v>224</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>602</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>603</v>
+      </c>
+      <c r="J94" t="s">
+        <v>604</v>
+      </c>
+      <c r="K94" t="s">
+        <v>605</v>
+      </c>
+      <c r="L94" t="s">
+        <v>606</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>607</v>
+      </c>
+      <c r="O94" t="s">
+        <v>44</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>608</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>609</v>
+      </c>
+      <c r="J95" t="s">
+        <v>610</v>
+      </c>
+      <c r="K95" t="s">
+        <v>611</v>
+      </c>
+      <c r="L95" t="s">
+        <v>612</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>607</v>
+      </c>
+      <c r="O95" t="s">
+        <v>44</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>614</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>615</v>
+      </c>
+      <c r="J96" t="s">
+        <v>616</v>
+      </c>
+      <c r="K96" t="s">
+        <v>617</v>
+      </c>
+      <c r="L96" t="s">
+        <v>618</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>619</v>
+      </c>
+      <c r="O96" t="s">
+        <v>110</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>621</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>622</v>
+      </c>
+      <c r="J97" t="s">
+        <v>623</v>
+      </c>
+      <c r="K97" t="s">
+        <v>624</v>
+      </c>
+      <c r="L97" t="s">
+        <v>625</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>619</v>
+      </c>
+      <c r="O97" t="s">
+        <v>44</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>627</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s">
+        <v>628</v>
+      </c>
+      <c r="J98" t="s">
+        <v>629</v>
+      </c>
+      <c r="K98" t="s">
+        <v>630</v>
+      </c>
+      <c r="L98" t="s">
+        <v>631</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>632</v>
+      </c>
+      <c r="O98" t="s">
+        <v>224</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>634</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s">
+        <v>635</v>
+      </c>
+      <c r="J99" t="s">
+        <v>636</v>
+      </c>
+      <c r="K99" t="s">
+        <v>637</v>
+      </c>
+      <c r="L99" t="s">
+        <v>638</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>639</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s">
+        <v>640</v>
+      </c>
+      <c r="J100" t="s">
+        <v>641</v>
+      </c>
+      <c r="K100" t="s">
+        <v>642</v>
+      </c>
+      <c r="L100" t="s">
+        <v>643</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>644</v>
+      </c>
+      <c r="O100" t="s">
+        <v>44</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>646</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s">
+        <v>647</v>
+      </c>
+      <c r="J101" t="s">
+        <v>648</v>
+      </c>
+      <c r="K101" t="s">
+        <v>649</v>
+      </c>
+      <c r="L101" t="s">
+        <v>650</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>651</v>
+      </c>
+      <c r="O101" t="s">
+        <v>110</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>652</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s">
+        <v>653</v>
+      </c>
+      <c r="J102" t="s">
+        <v>654</v>
+      </c>
+      <c r="K102" t="s">
+        <v>655</v>
+      </c>
+      <c r="L102" t="s">
+        <v>656</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>658</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s">
+        <v>659</v>
+      </c>
+      <c r="J103" t="s">
+        <v>660</v>
+      </c>
+      <c r="K103" t="s">
+        <v>661</v>
+      </c>
+      <c r="L103" t="s">
+        <v>662</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>663</v>
+      </c>
+      <c r="O103" t="s">
+        <v>44</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>664</v>
+      </c>
+      <c r="X103" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>667</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s">
+        <v>668</v>
+      </c>
+      <c r="J104" t="s">
+        <v>669</v>
+      </c>
+      <c r="K104" t="s">
+        <v>670</v>
+      </c>
+      <c r="L104" t="s">
+        <v>671</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>672</v>
+      </c>
+      <c r="O104" t="s">
+        <v>44</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4350</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>674</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" t="s">
+        <v>675</v>
+      </c>
+      <c r="J105" t="s">
+        <v>676</v>
+      </c>
+      <c r="K105" t="s">
+        <v>677</v>
+      </c>
+      <c r="L105" t="s">
+        <v>678</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>679</v>
+      </c>
+      <c r="O105" t="s">
+        <v>100</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>678</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +9134,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>680</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>681</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>682</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>683</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>684</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>685</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>686</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>687</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +9166,31 @@
         <v>4350</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>689</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>690</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>691</v>
       </c>
       <c r="E2" t="n">
         <v>70126</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>692</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>693</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>694</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>695</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
